--- a/attendance_data.xlsx
+++ b/attendance_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\attendance_website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941FFF0C-526C-4D53-B6B3-C181E5CB012F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0900DB78-E177-43D5-A1A1-C4E868AFBE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F33DA19-6151-4346-A3A3-5311E8A75F56}"/>
   </bookViews>
@@ -1550,7 +1550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>7</v>
@@ -1719,7 +1719,7 @@
         <v>89</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>90</v>
@@ -1728,18 +1728,18 @@
         <v>89</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" s="8">
         <v>5</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2"/>
     </row>

--- a/attendance_data.xlsx
+++ b/attendance_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\attendance_website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DEACE4-1AD6-4CDC-9F54-8712CDAAD3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90C740C-C743-44A7-9737-4597B3AC7A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F33DA19-6151-4346-A3A3-5311E8A75F56}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="344">
   <si>
     <t>Roll Number</t>
   </si>
@@ -372,9 +372,6 @@
     <t>HARSHA VAMSI KATTA</t>
   </si>
   <si>
-    <t>ENAMALI PAVANI</t>
-  </si>
-  <si>
     <t>KAMATHAM LOHITHA</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>KATAMREDDY MOHITH REDDY</t>
   </si>
   <si>
-    <t>LEVURU DEVI PRIYA</t>
-  </si>
-  <si>
     <t>KUDUMALA CHARAN KUMAR REDDY</t>
   </si>
   <si>
@@ -975,9 +969,6 @@
     <t>DSS_AUDI_243</t>
   </si>
   <si>
-    <t>DSS_AUDI_230.</t>
-  </si>
-  <si>
     <t>DSS_AUDI_274</t>
   </si>
   <si>
@@ -1054,13 +1045,25 @@
   </si>
   <si>
     <t xml:space="preserve">VEMULA RAJA DURGA MANEESH </t>
+  </si>
+  <si>
+    <t>DSS_AUDI_230</t>
+  </si>
+  <si>
+    <t>INAMALA PAVANI</t>
+  </si>
+  <si>
+    <t>LEBURU DEVI PRIYA</t>
+  </si>
+  <si>
+    <t>TOTAL ABSENTEES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,8 +1117,16 @@
       <sz val="12"/>
       <name val="Calibri "/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,6 +1142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,7 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1199,39 +1216,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1548,11 +1570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778A1F93-BD03-4755-A395-19876E27A1C7}">
-  <dimension ref="A1:P166"/>
+  <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D37" sqref="D37"/>
+      <selection pane="topRight" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1561,7 +1583,7 @@
     <col min="2" max="2" width="46.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.21875" style="1" bestFit="1" customWidth="1"/>
@@ -1571,46 +1593,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="21">
         <v>45533</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="21">
         <v>45534</v>
       </c>
-      <c r="H1" s="22">
+      <c r="H1" s="21">
         <v>45535</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="21">
         <v>45537</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="21">
         <v>45538</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="21">
         <v>45539</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1618,14 +1640,14 @@
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="16">
-        <f>M2/L2*100</f>
+        <f t="shared" ref="D2:D33" si="0">M2/L2*100</f>
         <v>60</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -1653,11 +1675,11 @@
         <v>5</v>
       </c>
       <c r="M2" s="17">
-        <f>COUNTIF(F2:J2,"Present")</f>
+        <f t="shared" ref="M2:M33" si="1">COUNTIF(F2:J2,"Present")</f>
         <v>3</v>
       </c>
       <c r="N2" s="17">
-        <f>L2-M2</f>
+        <f t="shared" ref="N2:N33" si="2">L2-M2</f>
         <v>2</v>
       </c>
       <c r="P2" s="2"/>
@@ -1666,14 +1688,14 @@
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="16">
-        <f>M3/L3*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -1701,11 +1723,11 @@
         <v>5</v>
       </c>
       <c r="M3" s="17">
-        <f>COUNTIF(F3:J3,"Present")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N3" s="17">
-        <f>L3-M3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P3" s="2"/>
@@ -1714,14 +1736,14 @@
       <c r="A4" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="16">
-        <f>M4/L4*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -1749,11 +1771,11 @@
         <v>5</v>
       </c>
       <c r="M4" s="17">
-        <f>COUNTIF(F4:J4,"Present")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N4" s="17">
-        <f>L4-M4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P4" s="2"/>
@@ -1762,14 +1784,14 @@
       <c r="A5" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="16">
-        <f>M5/L5*100</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -1797,11 +1819,11 @@
         <v>5</v>
       </c>
       <c r="M5" s="17">
-        <f>COUNTIF(F5:J5,"Present")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N5" s="17">
-        <f>L5-M5</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P5" s="2"/>
@@ -1810,15 +1832,15 @@
       <c r="A6" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="16">
-        <f>M6/L6*100</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>7</v>
@@ -1833,7 +1855,7 @@
         <v>90</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>89</v>
@@ -1845,12 +1867,12 @@
         <v>5</v>
       </c>
       <c r="M6" s="17">
-        <f>COUNTIF(F6:J6,"Present")</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="N6" s="17">
-        <f>L6-M6</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P6" s="2"/>
     </row>
@@ -1858,14 +1880,14 @@
       <c r="A7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="16">
-        <f>M7/L7*100</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -1893,11 +1915,11 @@
         <v>5</v>
       </c>
       <c r="M7" s="17">
-        <f>COUNTIF(F7:J7,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N7" s="17">
-        <f>L7-M7</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P7" s="2"/>
@@ -1906,15 +1928,15 @@
       <c r="A8" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="16">
-        <f>M8/L8*100</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>7</v>
@@ -1929,7 +1951,7 @@
         <v>89</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>89</v>
@@ -1941,12 +1963,12 @@
         <v>5</v>
       </c>
       <c r="M8" s="17">
-        <f>COUNTIF(F8:J8,"Present")</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="N8" s="17">
-        <f>L8-M8</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P8" s="2"/>
     </row>
@@ -1954,14 +1976,14 @@
       <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="16">
-        <f>M9/L9*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -1989,11 +2011,11 @@
         <v>5</v>
       </c>
       <c r="M9" s="17">
-        <f>COUNTIF(F9:J9,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N9" s="17">
-        <f>L9-M9</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P9" s="2"/>
@@ -2002,14 +2024,14 @@
       <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="16">
-        <f>M10/L10*100</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -2037,11 +2059,11 @@
         <v>5</v>
       </c>
       <c r="M10" s="17">
-        <f>COUNTIF(F10:J10,"Present")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N10" s="17">
-        <f>L10-M10</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P10" s="2"/>
@@ -2050,14 +2072,14 @@
       <c r="A11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="16">
-        <f>M11/L11*100</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -2085,11 +2107,11 @@
         <v>5</v>
       </c>
       <c r="M11" s="17">
-        <f>COUNTIF(F11:J11,"Present")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N11" s="17">
-        <f>L11-M11</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P11" s="2"/>
@@ -2098,14 +2120,14 @@
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="16">
-        <f>M12/L12*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -2133,11 +2155,11 @@
         <v>5</v>
       </c>
       <c r="M12" s="17">
-        <f>COUNTIF(F12:J12,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N12" s="17">
-        <f>L12-M12</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P12" s="2"/>
@@ -2146,14 +2168,14 @@
       <c r="A13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="16">
-        <f>M13/L13*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -2181,11 +2203,11 @@
         <v>5</v>
       </c>
       <c r="M13" s="17">
-        <f>COUNTIF(F13:J13,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N13" s="17">
-        <f>L13-M13</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P13" s="2"/>
@@ -2194,14 +2216,14 @@
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="16">
-        <f>M14/L14*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -2229,11 +2251,11 @@
         <v>5</v>
       </c>
       <c r="M14" s="17">
-        <f>COUNTIF(F14:J14,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N14" s="17">
-        <f>L14-M14</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P14" s="5"/>
@@ -2242,14 +2264,14 @@
       <c r="A15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="16">
-        <f>M15/L15*100</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -2277,11 +2299,11 @@
         <v>5</v>
       </c>
       <c r="M15" s="17">
-        <f>COUNTIF(F15:J15,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N15" s="17">
-        <f>L15-M15</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P15" s="2"/>
@@ -2290,14 +2312,14 @@
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="16">
-        <f>M16/L16*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -2325,11 +2347,11 @@
         <v>5</v>
       </c>
       <c r="M16" s="17">
-        <f>COUNTIF(F16:J16,"Present")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N16" s="17">
-        <f>L16-M16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P16" s="6"/>
@@ -2338,14 +2360,14 @@
       <c r="A17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="16">
-        <f>M17/L17*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -2373,11 +2395,11 @@
         <v>5</v>
       </c>
       <c r="M17" s="17">
-        <f>COUNTIF(F17:J17,"Present")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N17" s="17">
-        <f>L17-M17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P17" s="7"/>
@@ -2386,14 +2408,14 @@
       <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="16">
-        <f>M18/L18*100</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -2421,11 +2443,11 @@
         <v>5</v>
       </c>
       <c r="M18" s="17">
-        <f>COUNTIF(F18:J18,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N18" s="17">
-        <f>L18-M18</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P18" s="7"/>
@@ -2434,14 +2456,14 @@
       <c r="A19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="16">
-        <f>M19/L19*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -2469,11 +2491,11 @@
         <v>5</v>
       </c>
       <c r="M19" s="17">
-        <f>COUNTIF(F19:J19,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N19" s="17">
-        <f>L19-M19</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P19" s="8"/>
@@ -2482,14 +2504,14 @@
       <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="16">
-        <f>M20/L20*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -2517,11 +2539,11 @@
         <v>5</v>
       </c>
       <c r="M20" s="17">
-        <f>COUNTIF(F20:J20,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N20" s="17">
-        <f>L20-M20</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P20" s="8"/>
@@ -2530,14 +2552,14 @@
       <c r="A21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="16">
-        <f>M21/L21*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -2565,11 +2587,11 @@
         <v>5</v>
       </c>
       <c r="M21" s="17">
-        <f>COUNTIF(F21:J21,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N21" s="17">
-        <f>L21-M21</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P21" s="8"/>
@@ -2578,15 +2600,15 @@
       <c r="A22" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="16">
-        <f>M22/L22*100</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>7</v>
@@ -2604,7 +2626,7 @@
         <v>89</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>89</v>
@@ -2613,12 +2635,12 @@
         <v>5</v>
       </c>
       <c r="M22" s="17">
-        <f>COUNTIF(F22:J22,"Present")</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="N22" s="17">
-        <f>L22-M22</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P22" s="8"/>
     </row>
@@ -2626,14 +2648,14 @@
       <c r="A23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="16">
-        <f>M23/L23*100</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -2661,11 +2683,11 @@
         <v>5</v>
       </c>
       <c r="M23" s="17">
-        <f>COUNTIF(F23:J23,"Present")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N23" s="17">
-        <f>L23-M23</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P23" s="8"/>
@@ -2674,15 +2696,15 @@
       <c r="A24" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="16">
-        <f>M24/L24*100</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>7</v>
@@ -2697,7 +2719,7 @@
         <v>90</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>89</v>
@@ -2709,12 +2731,12 @@
         <v>5</v>
       </c>
       <c r="M24" s="17">
-        <f>COUNTIF(F24:J24,"Present")</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="N24" s="17">
-        <f>L24-M24</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P24" s="8"/>
     </row>
@@ -2722,14 +2744,14 @@
       <c r="A25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="16">
-        <f>M25/L25*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -2757,11 +2779,11 @@
         <v>5</v>
       </c>
       <c r="M25" s="17">
-        <f>COUNTIF(F25:J25,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N25" s="17">
-        <f>L25-M25</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P25" s="8"/>
@@ -2770,14 +2792,14 @@
       <c r="A26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="16">
-        <f>M26/L26*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -2805,11 +2827,11 @@
         <v>5</v>
       </c>
       <c r="M26" s="17">
-        <f>COUNTIF(F26:J26,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N26" s="17">
-        <f>L26-M26</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P26" s="8"/>
@@ -2818,14 +2840,14 @@
       <c r="A27" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="16">
-        <f>M27/L27*100</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E27" s="15" t="s">
@@ -2853,11 +2875,11 @@
         <v>5</v>
       </c>
       <c r="M27" s="17">
-        <f>COUNTIF(F27:J27,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N27" s="17">
-        <f>L27-M27</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P27" s="8"/>
@@ -2866,14 +2888,14 @@
       <c r="A28" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>80</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="16">
-        <f>M28/L28*100</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -2901,11 +2923,11 @@
         <v>5</v>
       </c>
       <c r="M28" s="17">
-        <f>COUNTIF(F28:J28,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N28" s="17">
-        <f>L28-M28</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P28" s="8"/>
@@ -2914,15 +2936,15 @@
       <c r="A29" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="16">
-        <f>M29/L29*100</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>7</v>
@@ -2940,7 +2962,7 @@
         <v>89</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>89</v>
@@ -2949,12 +2971,12 @@
         <v>5</v>
       </c>
       <c r="M29" s="17">
-        <f>COUNTIF(F29:J29,"Present")</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="N29" s="17">
-        <f>L29-M29</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P29" s="8"/>
     </row>
@@ -2962,14 +2984,14 @@
       <c r="A30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="16">
-        <f>M30/L30*100</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E30" s="15" t="s">
@@ -2997,11 +3019,11 @@
         <v>5</v>
       </c>
       <c r="M30" s="17">
-        <f>COUNTIF(F30:J30,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N30" s="17">
-        <f>L30-M30</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P30" s="8"/>
@@ -3010,14 +3032,14 @@
       <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="16">
-        <f>M31/L31*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -3045,11 +3067,11 @@
         <v>5</v>
       </c>
       <c r="M31" s="17">
-        <f>COUNTIF(F31:J31,"Present")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N31" s="17">
-        <f>L31-M31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P31" s="8"/>
@@ -3058,14 +3080,14 @@
       <c r="A32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="16">
-        <f>M32/L32*100</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -3093,11 +3115,11 @@
         <v>5</v>
       </c>
       <c r="M32" s="17">
-        <f>COUNTIF(F32:J32,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N32" s="17">
-        <f>L32-M32</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P32" s="9"/>
@@ -3106,14 +3128,14 @@
       <c r="A33" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="16">
-        <f>M33/L33*100</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E33" s="15" t="s">
@@ -3141,11 +3163,11 @@
         <v>5</v>
       </c>
       <c r="M33" s="17">
-        <f>COUNTIF(F33:J33,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N33" s="17">
-        <f>L33-M33</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P33" s="8"/>
@@ -3154,14 +3176,14 @@
       <c r="A34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="16">
-        <f>M34/L34*100</f>
+        <f t="shared" ref="D34:D65" si="3">M34/L34*100</f>
         <v>100</v>
       </c>
       <c r="E34" s="15" t="s">
@@ -3189,11 +3211,11 @@
         <v>5</v>
       </c>
       <c r="M34" s="17">
-        <f>COUNTIF(F34:J34,"Present")</f>
+        <f t="shared" ref="M34:M65" si="4">COUNTIF(F34:J34,"Present")</f>
         <v>5</v>
       </c>
       <c r="N34" s="17">
-        <f>L34-M34</f>
+        <f t="shared" ref="N34:N65" si="5">L34-M34</f>
         <v>0</v>
       </c>
       <c r="P34" s="8"/>
@@ -3202,15 +3224,15 @@
       <c r="A35" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="16">
-        <f>M35/L35*100</f>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>7</v>
@@ -3225,7 +3247,7 @@
         <v>90</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>89</v>
@@ -3237,12 +3259,12 @@
         <v>5</v>
       </c>
       <c r="M35" s="17">
-        <f>COUNTIF(F35:J35,"Present")</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="N35" s="17">
-        <f>L35-M35</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="P35" s="8"/>
     </row>
@@ -3250,14 +3272,14 @@
       <c r="A36" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="16">
-        <f>M36/L36*100</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E36" s="15" t="s">
@@ -3285,11 +3307,11 @@
         <v>5</v>
       </c>
       <c r="M36" s="17">
-        <f>COUNTIF(F36:J36,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N36" s="17">
-        <f>L36-M36</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P36" s="8"/>
@@ -3298,14 +3320,14 @@
       <c r="A37" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="16">
-        <f>M37/L37*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E37" s="15" t="s">
@@ -3333,11 +3355,11 @@
         <v>5</v>
       </c>
       <c r="M37" s="17">
-        <f>COUNTIF(F37:J37,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N37" s="17">
-        <f>L37-M37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P37" s="8"/>
@@ -3346,14 +3368,14 @@
       <c r="A38" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="16">
-        <f>M38/L38*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -3381,11 +3403,11 @@
         <v>5</v>
       </c>
       <c r="M38" s="17">
-        <f>COUNTIF(F38:J38,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N38" s="17">
-        <f>L38-M38</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P38" s="8"/>
@@ -3394,14 +3416,14 @@
       <c r="A39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>338</v>
+      <c r="B39" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="16">
-        <f>M39/L39*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E39" s="15" t="s">
@@ -3429,11 +3451,11 @@
         <v>5</v>
       </c>
       <c r="M39" s="17">
-        <f>COUNTIF(F39:J39,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N39" s="17">
-        <f>L39-M39</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P39" s="8"/>
@@ -3442,14 +3464,14 @@
       <c r="A40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="16">
-        <f>M40/L40*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E40" s="15" t="s">
@@ -3477,11 +3499,11 @@
         <v>5</v>
       </c>
       <c r="M40" s="17">
-        <f>COUNTIF(F40:J40,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N40" s="17">
-        <f>L40-M40</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P40" s="8"/>
@@ -3490,14 +3512,14 @@
       <c r="A41" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="16">
-        <f>M41/L41*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E41" s="15" t="s">
@@ -3525,11 +3547,11 @@
         <v>5</v>
       </c>
       <c r="M41" s="17">
-        <f>COUNTIF(F41:J41,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N41" s="17">
-        <f>L41-M41</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P41" s="10"/>
@@ -3538,14 +3560,14 @@
       <c r="A42" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="16">
-        <f>M42/L42*100</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -3573,11 +3595,11 @@
         <v>5</v>
       </c>
       <c r="M42" s="17">
-        <f>COUNTIF(F42:J42,"Present")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N42" s="17">
-        <f>L42-M42</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P42" s="10"/>
@@ -3586,14 +3608,14 @@
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="16">
-        <f>M43/L43*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E43" s="15" t="s">
@@ -3621,11 +3643,11 @@
         <v>5</v>
       </c>
       <c r="M43" s="17">
-        <f>COUNTIF(F43:J43,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N43" s="17">
-        <f>L43-M43</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P43" s="10"/>
@@ -3634,14 +3656,14 @@
       <c r="A44" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="16">
-        <f>M44/L44*100</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="E44" s="15" t="s">
@@ -3669,11 +3691,11 @@
         <v>5</v>
       </c>
       <c r="M44" s="17">
-        <f>COUNTIF(F44:J44,"Present")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N44" s="17">
-        <f>L44-M44</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P44" s="10"/>
@@ -3682,14 +3704,14 @@
       <c r="A45" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="16">
-        <f>M45/L45*100</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -3717,11 +3739,11 @@
         <v>5</v>
       </c>
       <c r="M45" s="17">
-        <f>COUNTIF(F45:J45,"Present")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N45" s="17">
-        <f>L45-M45</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P45" s="10"/>
@@ -3730,14 +3752,14 @@
       <c r="A46" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="16">
-        <f>M46/L46*100</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E46" s="15" t="s">
@@ -3765,11 +3787,11 @@
         <v>5</v>
       </c>
       <c r="M46" s="17">
-        <f>COUNTIF(F46:J46,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N46" s="17">
-        <f>L46-M46</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P46" s="10"/>
@@ -3778,14 +3800,14 @@
       <c r="A47" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="16">
-        <f>M47/L47*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E47" s="15" t="s">
@@ -3813,11 +3835,11 @@
         <v>5</v>
       </c>
       <c r="M47" s="17">
-        <f>COUNTIF(F47:J47,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N47" s="17">
-        <f>L47-M47</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P47" s="2"/>
@@ -3826,14 +3848,14 @@
       <c r="A48" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="16">
-        <f>M48/L48*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E48" s="15" t="s">
@@ -3861,11 +3883,11 @@
         <v>5</v>
       </c>
       <c r="M48" s="17">
-        <f>COUNTIF(F48:J48,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N48" s="17">
-        <f>L48-M48</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P48" s="2"/>
@@ -3874,14 +3896,14 @@
       <c r="A49" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="22" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="16">
-        <f>M49/L49*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E49" s="15" t="s">
@@ -3909,11 +3931,11 @@
         <v>5</v>
       </c>
       <c r="M49" s="17">
-        <f>COUNTIF(F49:J49,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N49" s="17">
-        <f>L49-M49</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P49" s="2"/>
@@ -3922,14 +3944,14 @@
       <c r="A50" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="16">
-        <f>M50/L50*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E50" s="15" t="s">
@@ -3957,11 +3979,11 @@
         <v>5</v>
       </c>
       <c r="M50" s="17">
-        <f>COUNTIF(F50:J50,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N50" s="17">
-        <f>L50-M50</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P50" s="2"/>
@@ -3970,14 +3992,14 @@
       <c r="A51" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="16">
-        <f>M51/L51*100</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -4005,27 +4027,27 @@
         <v>5</v>
       </c>
       <c r="M51" s="17">
-        <f>COUNTIF(F51:J51,"Present")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N51" s="17">
-        <f>L51-M51</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P51" s="12"/>
     </row>
     <row r="52" spans="1:16" ht="15.6">
       <c r="A52" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>128</v>
+        <v>215</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="16">
-        <f>M52/L52*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E52" s="15" t="s">
@@ -4053,26 +4075,26 @@
         <v>5</v>
       </c>
       <c r="M52" s="17">
-        <f>COUNTIF(F52:J52,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N52" s="17">
-        <f>L52-M52</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.6">
       <c r="A53" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>149</v>
+        <v>235</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="16">
-        <f>M53/L53*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E53" s="15" t="s">
@@ -4100,26 +4122,26 @@
         <v>5</v>
       </c>
       <c r="M53" s="17">
-        <f>COUNTIF(F53:J53,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N53" s="17">
-        <f>L53-M53</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.6">
       <c r="A54" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>119</v>
+        <v>206</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="16">
-        <f>M54/L54*100</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E54" s="15" t="s">
@@ -4147,26 +4169,26 @@
         <v>5</v>
       </c>
       <c r="M54" s="17">
-        <f>COUNTIF(F54:J54,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N54" s="17">
-        <f>L54-M54</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.6">
       <c r="A55" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>127</v>
+        <v>214</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="16">
-        <f>M55/L55*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E55" s="15" t="s">
@@ -4194,26 +4216,26 @@
         <v>5</v>
       </c>
       <c r="M55" s="17">
-        <f>COUNTIF(F55:J55,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N55" s="17">
-        <f>L55-M55</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.6">
       <c r="A56" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>126</v>
+        <v>213</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="16">
-        <f>M56/L56*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E56" s="15" t="s">
@@ -4241,26 +4263,26 @@
         <v>5</v>
       </c>
       <c r="M56" s="17">
-        <f>COUNTIF(F56:J56,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N56" s="17">
-        <f>L56-M56</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.6">
       <c r="A57" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>115</v>
+        <v>202</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="16">
-        <f>M57/L57*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E57" s="15" t="s">
@@ -4288,26 +4310,26 @@
         <v>5</v>
       </c>
       <c r="M57" s="17">
-        <f>COUNTIF(F57:J57,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N57" s="17">
-        <f>L57-M57</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.6">
       <c r="A58" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>148</v>
+        <v>234</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="16">
-        <f>M58/L58*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E58" s="15" t="s">
@@ -4335,26 +4357,26 @@
         <v>5</v>
       </c>
       <c r="M58" s="17">
-        <f>COUNTIF(F58:J58,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N58" s="17">
-        <f>L58-M58</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.6">
       <c r="A59" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>143</v>
+        <v>230</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="16">
-        <f>M59/L59*100</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E59" s="15" t="s">
@@ -4382,27 +4404,27 @@
         <v>5</v>
       </c>
       <c r="M59" s="17">
-        <f>COUNTIF(F59:J59,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N59" s="17">
-        <f>L59-M59</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.6">
       <c r="A60" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>130</v>
+        <v>217</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="16">
-        <f>M60/L60*100</f>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>8</v>
@@ -4417,7 +4439,7 @@
         <v>90</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J60" s="16" t="s">
         <v>89</v>
@@ -4429,26 +4451,26 @@
         <v>5</v>
       </c>
       <c r="M60" s="17">
-        <f>COUNTIF(F60:J60,"Present")</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="N60" s="17">
-        <f>L60-M60</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.6">
       <c r="A61" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>129</v>
+        <v>216</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="16">
-        <f>M61/L61*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E61" s="15" t="s">
@@ -4476,26 +4498,26 @@
         <v>5</v>
       </c>
       <c r="M61" s="17">
-        <f>COUNTIF(F61:J61,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N61" s="17">
-        <f>L61-M61</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15.6">
       <c r="A62" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>132</v>
+        <v>219</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="16">
-        <f>M62/L62*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E62" s="15" t="s">
@@ -4517,32 +4539,32 @@
         <v>89</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L62" s="17">
         <v>5</v>
       </c>
       <c r="M62" s="17">
-        <f>COUNTIF(F62:J62,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N62" s="17">
-        <f>L62-M62</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15.6">
       <c r="A63" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>131</v>
+        <v>218</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="16">
-        <f>M63/L63*100</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E63" s="15" t="s">
@@ -4570,26 +4592,26 @@
         <v>5</v>
       </c>
       <c r="M63" s="17">
-        <f>COUNTIF(F63:J63,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N63" s="17">
-        <f>L63-M63</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15.6">
       <c r="A64" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>116</v>
+        <v>203</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="16">
-        <f>M64/L64*100</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E64" s="15" t="s">
@@ -4617,27 +4639,27 @@
         <v>5</v>
       </c>
       <c r="M64" s="17">
-        <f>COUNTIF(F64:J64,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="N64" s="17">
-        <f>L64-M64</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.6">
       <c r="A65" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>154</v>
+        <v>240</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="16">
-        <f>M65/L65*100</f>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>8</v>
@@ -4652,7 +4674,7 @@
         <v>90</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J65" s="17" t="s">
         <v>89</v>
@@ -4664,26 +4686,26 @@
         <v>5</v>
       </c>
       <c r="M65" s="17">
-        <f>COUNTIF(F65:J65,"Present")</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="N65" s="17">
-        <f>L65-M65</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.6">
       <c r="A66" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>134</v>
+        <v>221</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="16">
-        <f>M66/L66*100</f>
+        <f t="shared" ref="D66:D97" si="6">M66/L66*100</f>
         <v>80</v>
       </c>
       <c r="E66" s="15" t="s">
@@ -4711,26 +4733,26 @@
         <v>5</v>
       </c>
       <c r="M66" s="17">
-        <f>COUNTIF(F66:J66,"Present")</f>
+        <f t="shared" ref="M66:M97" si="7">COUNTIF(F66:J66,"Present")</f>
         <v>4</v>
       </c>
       <c r="N66" s="17">
-        <f>L66-M66</f>
+        <f t="shared" ref="N66:N97" si="8">L66-M66</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.6">
       <c r="A67" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>150</v>
+        <v>236</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="16">
-        <f>M67/L67*100</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E67" s="15" t="s">
@@ -4758,11 +4780,11 @@
         <v>5</v>
       </c>
       <c r="M67" s="17">
-        <f>COUNTIF(F67:J67,"Present")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N67" s="17">
-        <f>L67-M67</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4770,14 +4792,14 @@
       <c r="A68" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="23" t="s">
-        <v>147</v>
+      <c r="B68" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="16">
-        <f>M68/L68*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E68" s="15" t="s">
@@ -4805,26 +4827,26 @@
         <v>5</v>
       </c>
       <c r="M68" s="17">
-        <f>COUNTIF(F68:J68,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N68" s="17">
-        <f>L68-M68</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.6">
       <c r="A69" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>144</v>
+        <v>231</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="16">
-        <f>M69/L69*100</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -4852,26 +4874,26 @@
         <v>5</v>
       </c>
       <c r="M69" s="17">
-        <f>COUNTIF(F69:J69,"Present")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N69" s="17">
-        <f>L69-M69</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.6">
       <c r="A70" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>135</v>
+        <v>222</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="16">
-        <f>M70/L70*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E70" s="15" t="s">
@@ -4899,26 +4921,26 @@
         <v>5</v>
       </c>
       <c r="M70" s="17">
-        <f>COUNTIF(F70:J70,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N70" s="17">
-        <f>L70-M70</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.6">
       <c r="A71" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>125</v>
+        <v>212</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="16">
-        <f>M71/L71*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E71" s="15" t="s">
@@ -4946,26 +4968,26 @@
         <v>5</v>
       </c>
       <c r="M71" s="17">
-        <f>COUNTIF(F71:J71,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N71" s="17">
-        <f>L71-M71</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.6">
       <c r="A72" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>145</v>
+        <v>232</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="16">
-        <f>M72/L72*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E72" s="15" t="s">
@@ -4993,26 +5015,26 @@
         <v>5</v>
       </c>
       <c r="M72" s="17">
-        <f>COUNTIF(F72:J72,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N72" s="17">
-        <f>L72-M72</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.6">
       <c r="A73" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>118</v>
+        <v>205</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="16">
-        <f>M73/L73*100</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E73" s="15" t="s">
@@ -5040,26 +5062,26 @@
         <v>5</v>
       </c>
       <c r="M73" s="17">
-        <f>COUNTIF(F73:J73,"Present")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N73" s="17">
-        <f>L73-M73</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.6">
       <c r="A74" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>122</v>
+        <v>209</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="16">
-        <f>M74/L74*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E74" s="15" t="s">
@@ -5087,26 +5109,26 @@
         <v>5</v>
       </c>
       <c r="M74" s="17">
-        <f>COUNTIF(F74:J74,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N74" s="17">
-        <f>L74-M74</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.6">
       <c r="A75" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>120</v>
+        <v>207</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="16">
-        <f>M75/L75*100</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E75" s="15" t="s">
@@ -5134,26 +5156,26 @@
         <v>5</v>
       </c>
       <c r="M75" s="17">
-        <f>COUNTIF(F75:J75,"Present")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N75" s="17">
-        <f>L75-M75</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.6">
       <c r="A76" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>120</v>
+        <v>207</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="16">
-        <f>M76/L76*100</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E76" s="15" t="s">
@@ -5181,26 +5203,26 @@
         <v>5</v>
       </c>
       <c r="M76" s="17">
-        <f>COUNTIF(F76:J76,"Present")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N76" s="17">
-        <f>L76-M76</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="15.6">
       <c r="A77" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>117</v>
+        <v>204</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="16">
-        <f>M77/L77*100</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E77" s="15" t="s">
@@ -5228,26 +5250,26 @@
         <v>5</v>
       </c>
       <c r="M77" s="17">
-        <f>COUNTIF(F77:J77,"Present")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N77" s="17">
-        <f>L77-M77</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="15.6">
       <c r="A78" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>146</v>
+        <v>233</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="16">
-        <f>M78/L78*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E78" s="15" t="s">
@@ -5275,26 +5297,26 @@
         <v>5</v>
       </c>
       <c r="M78" s="17">
-        <f>COUNTIF(F78:J78,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N78" s="17">
-        <f>L78-M78</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15.6">
       <c r="A79" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>152</v>
+        <v>238</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="16">
-        <f>M79/L79*100</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E79" s="15" t="s">
@@ -5322,26 +5344,26 @@
         <v>5</v>
       </c>
       <c r="M79" s="17">
-        <f>COUNTIF(F79:J79,"Present")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N79" s="17">
-        <f>L79-M79</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.6">
       <c r="A80" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>140</v>
+        <v>227</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="16">
-        <f>M80/L80*100</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E80" s="15" t="s">
@@ -5369,26 +5391,26 @@
         <v>5</v>
       </c>
       <c r="M80" s="17">
-        <f>COUNTIF(F80:J80,"Present")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N80" s="17">
-        <f>L80-M80</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="15.6">
       <c r="A81" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>137</v>
+        <v>224</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="16">
-        <f>M81/L81*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E81" s="15" t="s">
@@ -5416,26 +5438,26 @@
         <v>5</v>
       </c>
       <c r="M81" s="17">
-        <f>COUNTIF(F81:J81,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N81" s="17">
-        <f>L81-M81</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.6">
       <c r="A82" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B82" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" s="22" t="s">
         <v>114</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="16">
-        <f>M82/L82*100</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E82" s="15" t="s">
@@ -5463,26 +5485,26 @@
         <v>5</v>
       </c>
       <c r="M82" s="17">
-        <f>COUNTIF(F82:J82,"Present")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N82" s="17">
-        <f>L82-M82</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.6">
       <c r="A83" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>141</v>
+        <v>228</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="16">
-        <f>M83/L83*100</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E83" s="15" t="s">
@@ -5510,26 +5532,26 @@
         <v>5</v>
       </c>
       <c r="M83" s="17">
-        <f>COUNTIF(F83:J83,"Present")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N83" s="17">
-        <f>L83-M83</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.6">
       <c r="A84" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>151</v>
+        <v>237</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="16">
-        <f>M84/L84*100</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E84" s="15" t="s">
@@ -5557,26 +5579,26 @@
         <v>5</v>
       </c>
       <c r="M84" s="17">
-        <f>COUNTIF(F84:J84,"Present")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N84" s="17">
-        <f>L84-M84</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.6">
       <c r="A85" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B85" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="16">
-        <f>M85/L85*100</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E85" s="15" t="s">
@@ -5604,26 +5626,26 @@
         <v>5</v>
       </c>
       <c r="M85" s="17">
-        <f>COUNTIF(F85:J85,"Present")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N85" s="17">
-        <f>L85-M85</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="15.6">
       <c r="A86" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>155</v>
+        <v>241</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="16">
-        <f>M86/L86*100</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E86" s="15" t="s">
@@ -5651,26 +5673,26 @@
         <v>5</v>
       </c>
       <c r="M86" s="17">
-        <f>COUNTIF(F86:J86,"Present")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N86" s="17">
-        <f>L86-M86</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="15.6">
       <c r="A87" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>136</v>
+        <v>223</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="16">
-        <f>M87/L87*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E87" s="15" t="s">
@@ -5698,26 +5720,26 @@
         <v>5</v>
       </c>
       <c r="M87" s="17">
-        <f>COUNTIF(F87:J87,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N87" s="17">
-        <f>L87-M87</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="15.6">
       <c r="A88" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>121</v>
+        <v>208</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="16">
-        <f>M88/L88*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E88" s="15" t="s">
@@ -5745,26 +5767,26 @@
         <v>5</v>
       </c>
       <c r="M88" s="17">
-        <f>COUNTIF(F88:J88,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N88" s="17">
-        <f>L88-M88</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="15.6">
       <c r="A89" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>142</v>
+        <v>229</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="16">
-        <f>M89/L89*100</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E89" s="15" t="s">
@@ -5792,26 +5814,26 @@
         <v>5</v>
       </c>
       <c r="M89" s="17">
-        <f>COUNTIF(F89:J89,"Present")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="N89" s="17">
-        <f>L89-M89</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15.6">
       <c r="A90" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>133</v>
+        <v>220</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="16">
-        <f>M90/L90*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E90" s="15" t="s">
@@ -5839,26 +5861,26 @@
         <v>5</v>
       </c>
       <c r="M90" s="17">
-        <f>COUNTIF(F90:J90,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N90" s="17">
-        <f>L90-M90</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="15.6">
       <c r="A91" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>123</v>
+        <v>210</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="16">
-        <f>M91/L91*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E91" s="15" t="s">
@@ -5886,26 +5908,26 @@
         <v>5</v>
       </c>
       <c r="M91" s="17">
-        <f>COUNTIF(F91:J91,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N91" s="17">
-        <f>L91-M91</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="15.6">
       <c r="A92" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>139</v>
+        <v>226</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="16">
-        <f>M92/L92*100</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E92" s="15" t="s">
@@ -5933,26 +5955,26 @@
         <v>5</v>
       </c>
       <c r="M92" s="17">
-        <f>COUNTIF(F92:J92,"Present")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N92" s="17">
-        <f>L92-M92</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="15.6">
       <c r="A93" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>138</v>
+        <v>225</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="16">
-        <f>M93/L93*100</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E93" s="15" t="s">
@@ -5980,26 +6002,26 @@
         <v>5</v>
       </c>
       <c r="M93" s="17">
-        <f>COUNTIF(F93:J93,"Present")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N93" s="17">
-        <f>L93-M93</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="15.6">
       <c r="A94" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>153</v>
+        <v>239</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="16">
-        <f>M94/L94*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E94" s="15" t="s">
@@ -6027,26 +6049,26 @@
         <v>5</v>
       </c>
       <c r="M94" s="17">
-        <f>COUNTIF(F94:J94,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N94" s="17">
-        <f>L94-M94</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="11" customFormat="1" ht="15.6">
       <c r="A95" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>124</v>
+        <v>211</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="16">
-        <f>M95/L95*100</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E95" s="15" t="s">
@@ -6074,30 +6096,30 @@
         <v>5</v>
       </c>
       <c r="M95" s="17">
-        <f>COUNTIF(F95:J95,"Present")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N95" s="17">
-        <f>L95-M95</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15.6">
       <c r="A96" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>163</v>
+        <v>247</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="16">
-        <f>M96/L96*100</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>90</v>
@@ -6121,30 +6143,30 @@
         <v>5</v>
       </c>
       <c r="M96" s="17">
-        <f>COUNTIF(F96:J96,"Present")</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N96" s="17">
-        <f>L96-M96</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="15.6">
       <c r="A97" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>201</v>
+        <v>284</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>199</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="16">
-        <f>M97/L97*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>89</v>
@@ -6168,30 +6190,30 @@
         <v>5</v>
       </c>
       <c r="M97" s="17">
-        <f>COUNTIF(F97:J97,"Present")</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N97" s="17">
-        <f>L97-M97</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="15.6">
       <c r="A98" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>173</v>
+        <v>257</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="16">
-        <f>M98/L98*100</f>
+        <f t="shared" ref="D98:D129" si="9">M98/L98*100</f>
         <v>40</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>90</v>
@@ -6215,30 +6237,30 @@
         <v>5</v>
       </c>
       <c r="M98" s="17">
-        <f>COUNTIF(F98:J98,"Present")</f>
+        <f t="shared" ref="M98:M129" si="10">COUNTIF(F98:J98,"Present")</f>
         <v>2</v>
       </c>
       <c r="N98" s="17">
-        <f>L98-M98</f>
+        <f t="shared" ref="N98:N129" si="11">L98-M98</f>
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="15.6">
       <c r="A99" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>189</v>
+        <v>272</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="16">
-        <f>M99/L99*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>89</v>
@@ -6262,30 +6284,30 @@
         <v>5</v>
       </c>
       <c r="M99" s="17">
-        <f>COUNTIF(F99:J99,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N99" s="17">
-        <f>L99-M99</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="15.6">
       <c r="A100" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>185</v>
+        <v>268</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="16">
-        <f>M100/L100*100</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>90</v>
@@ -6309,30 +6331,30 @@
         <v>5</v>
       </c>
       <c r="M100" s="17">
-        <f>COUNTIF(F100:J100,"Present")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="N100" s="17">
-        <f>L100-M100</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="15.6">
       <c r="A101" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>193</v>
+        <v>276</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="16">
-        <f>M101/L101*100</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>89</v>
@@ -6356,30 +6378,30 @@
         <v>5</v>
       </c>
       <c r="M101" s="17">
-        <f>COUNTIF(F101:J101,"Present")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="N101" s="17">
-        <f>L101-M101</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.6">
       <c r="A102" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>158</v>
+        <v>242</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D102" s="16">
-        <f>M102/L102*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>89</v>
@@ -6403,30 +6425,30 @@
         <v>5</v>
       </c>
       <c r="M102" s="17">
-        <f>COUNTIF(F102:J102,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N102" s="17">
-        <f>L102-M102</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="15.6">
       <c r="A103" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>195</v>
+        <v>278</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="16">
-        <f>M103/L103*100</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F103" s="17" t="s">
         <v>89</v>
@@ -6450,30 +6472,30 @@
         <v>5</v>
       </c>
       <c r="M103" s="17">
-        <f>COUNTIF(F103:J103,"Present")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="N103" s="17">
-        <f>L103-M103</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="15.6">
       <c r="A104" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>199</v>
+        <v>282</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="16">
-        <f>M104/L104*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>89</v>
@@ -6497,30 +6519,30 @@
         <v>5</v>
       </c>
       <c r="M104" s="17">
-        <f>COUNTIF(F104:J104,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N104" s="17">
-        <f>L104-M104</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="15.6">
       <c r="A105" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>175</v>
+        <v>259</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="16">
-        <f>M105/L105*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F105" s="13" t="s">
         <v>89</v>
@@ -6544,30 +6566,30 @@
         <v>5</v>
       </c>
       <c r="M105" s="17">
-        <f>COUNTIF(F105:J105,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N105" s="17">
-        <f>L105-M105</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="15.6">
       <c r="A106" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>179</v>
+        <v>262</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="16">
-        <f>M106/L106*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>89</v>
@@ -6591,30 +6613,30 @@
         <v>5</v>
       </c>
       <c r="M106" s="17">
-        <f>COUNTIF(F106:J106,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N106" s="17">
-        <f>L106-M106</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="15.6">
       <c r="A107" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>200</v>
+        <v>283</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="16">
-        <f>M107/L107*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F107" s="17" t="s">
         <v>89</v>
@@ -6638,30 +6660,30 @@
         <v>5</v>
       </c>
       <c r="M107" s="17">
-        <f>COUNTIF(F107:J107,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N107" s="17">
-        <f>L107-M107</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="15.6">
       <c r="A108" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B108" s="23" t="s">
-        <v>176</v>
+        <v>336</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D108" s="16">
-        <f>M108/L108*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>89</v>
@@ -6685,30 +6707,30 @@
         <v>5</v>
       </c>
       <c r="M108" s="17">
-        <f>COUNTIF(F108:J108,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N108" s="17">
-        <f>L108-M108</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="15.6">
       <c r="A109" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>197</v>
+        <v>280</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="16">
-        <f>M109/L109*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>89</v>
@@ -6732,30 +6754,30 @@
         <v>5</v>
       </c>
       <c r="M109" s="17">
-        <f>COUNTIF(F109:J109,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N109" s="17">
-        <f>L109-M109</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="15.6">
       <c r="A110" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>192</v>
+        <v>275</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="16">
-        <f>M110/L110*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F110" s="17" t="s">
         <v>89</v>
@@ -6779,30 +6801,30 @@
         <v>5</v>
       </c>
       <c r="M110" s="17">
-        <f>COUNTIF(F110:J110,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N110" s="17">
-        <f>L110-M110</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="15.6">
       <c r="A111" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="B111" s="23" t="s">
-        <v>191</v>
+        <v>274</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D111" s="16">
-        <f>M111/L111*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F111" s="17" t="s">
         <v>89</v>
@@ -6826,30 +6848,30 @@
         <v>5</v>
       </c>
       <c r="M111" s="17">
-        <f>COUNTIF(F111:J111,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N111" s="17">
-        <f>L111-M111</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="15.6">
       <c r="A112" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>161</v>
+        <v>245</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="16">
-        <f>M112/L112*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F112" s="17" t="s">
         <v>89</v>
@@ -6873,30 +6895,30 @@
         <v>5</v>
       </c>
       <c r="M112" s="17">
-        <f>COUNTIF(F112:J112,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N112" s="17">
-        <f>L112-M112</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="15.6">
       <c r="A113" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>171</v>
+        <v>255</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="16">
-        <f>M113/L113*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F113" s="13" t="s">
         <v>89</v>
@@ -6920,30 +6942,30 @@
         <v>5</v>
       </c>
       <c r="M113" s="17">
-        <f>COUNTIF(F113:J113,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N113" s="17">
-        <f>L113-M113</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="15.6">
       <c r="A114" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>187</v>
+        <v>270</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D114" s="16">
-        <f>M114/L114*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F114" s="13" t="s">
         <v>89</v>
@@ -6967,30 +6989,30 @@
         <v>5</v>
       </c>
       <c r="M114" s="17">
-        <f>COUNTIF(F114:J114,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N114" s="17">
-        <f>L114-M114</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="15.6">
       <c r="A115" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>182</v>
+        <v>265</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="16">
-        <f>M115/L115*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F115" s="13" t="s">
         <v>89</v>
@@ -7014,30 +7036,30 @@
         <v>5</v>
       </c>
       <c r="M115" s="17">
-        <f>COUNTIF(F115:J115,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N115" s="17">
-        <f>L115-M115</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="15.6">
       <c r="A116" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>184</v>
+        <v>267</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D116" s="16">
-        <f>M116/L116*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F116" s="13" t="s">
         <v>89</v>
@@ -7061,30 +7083,30 @@
         <v>5</v>
       </c>
       <c r="M116" s="17">
-        <f>COUNTIF(F116:J116,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N116" s="17">
-        <f>L116-M116</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="15.6">
       <c r="A117" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>177</v>
+        <v>260</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="16">
-        <f>M117/L117*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>89</v>
@@ -7108,30 +7130,30 @@
         <v>5</v>
       </c>
       <c r="M117" s="17">
-        <f>COUNTIF(F117:J117,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N117" s="17">
-        <f>L117-M117</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="15.6">
       <c r="A118" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>190</v>
+        <v>273</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D118" s="16">
-        <f>M118/L118*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>89</v>
@@ -7155,30 +7177,30 @@
         <v>5</v>
       </c>
       <c r="M118" s="17">
-        <f>COUNTIF(F118:J118,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N118" s="17">
-        <f>L118-M118</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="15.6">
       <c r="A119" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B119" s="23" t="s">
-        <v>165</v>
+        <v>249</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="16">
-        <f>M119/L119*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F119" s="17" t="s">
         <v>89</v>
@@ -7202,30 +7224,30 @@
         <v>5</v>
       </c>
       <c r="M119" s="17">
-        <f>COUNTIF(F119:J119,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N119" s="17">
-        <f>L119-M119</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="15.6">
       <c r="A120" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B120" s="23" t="s">
-        <v>178</v>
+        <v>261</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="16">
-        <f>M120/L120*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F120" s="13" t="s">
         <v>89</v>
@@ -7249,30 +7271,30 @@
         <v>5</v>
       </c>
       <c r="M120" s="17">
-        <f>COUNTIF(F120:J120,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N120" s="17">
-        <f>L120-M120</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="15.6">
       <c r="A121" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="B121" s="23" t="s">
-        <v>194</v>
+        <v>277</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="16">
-        <f>M121/L121*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F121" s="17" t="s">
         <v>89</v>
@@ -7296,30 +7318,30 @@
         <v>5</v>
       </c>
       <c r="M121" s="17">
-        <f>COUNTIF(F121:J121,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N121" s="17">
-        <f>L121-M121</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="15.6">
       <c r="A122" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B122" s="23" t="s">
-        <v>166</v>
+        <v>250</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="16">
-        <f>M122/L122*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F122" s="17" t="s">
         <v>89</v>
@@ -7343,30 +7365,30 @@
         <v>5</v>
       </c>
       <c r="M122" s="17">
-        <f>COUNTIF(F122:J122,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N122" s="17">
-        <f>L122-M122</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="15.6">
       <c r="A123" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>198</v>
+        <v>281</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="16">
-        <f>M123/L123*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F123" s="13" t="s">
         <v>89</v>
@@ -7390,30 +7412,30 @@
         <v>5</v>
       </c>
       <c r="M123" s="17">
-        <f>COUNTIF(F123:J123,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N123" s="17">
-        <f>L123-M123</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="15.6">
       <c r="A124" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>160</v>
+        <v>244</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D124" s="16">
-        <f>M124/L124*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F124" s="17" t="s">
         <v>89</v>
@@ -7437,30 +7459,30 @@
         <v>5</v>
       </c>
       <c r="M124" s="17">
-        <f>COUNTIF(F124:J124,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N124" s="17">
-        <f>L124-M124</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="15.6">
       <c r="A125" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B125" s="23" t="s">
-        <v>181</v>
+        <v>264</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D125" s="16">
-        <f>M125/L125*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F125" s="13" t="s">
         <v>89</v>
@@ -7484,30 +7506,30 @@
         <v>5</v>
       </c>
       <c r="M125" s="17">
-        <f>COUNTIF(F125:J125,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N125" s="17">
-        <f>L125-M125</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="15.6">
       <c r="A126" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>167</v>
+        <v>251</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="16">
-        <f>M126/L126*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F126" s="17" t="s">
         <v>89</v>
@@ -7531,30 +7553,30 @@
         <v>5</v>
       </c>
       <c r="M126" s="17">
-        <f>COUNTIF(F126:J126,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N126" s="17">
-        <f>L126-M126</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="15.6">
       <c r="A127" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B127" s="23" t="s">
-        <v>164</v>
+        <v>248</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="16">
-        <f>M127/L127*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F127" s="17" t="s">
         <v>89</v>
@@ -7578,30 +7600,30 @@
         <v>5</v>
       </c>
       <c r="M127" s="17">
-        <f>COUNTIF(F127:J127,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N127" s="17">
-        <f>L127-M127</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="15.6">
       <c r="A128" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>162</v>
+        <v>246</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D128" s="16">
-        <f>M128/L128*100</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F128" s="17" t="s">
         <v>89</v>
@@ -7625,30 +7647,30 @@
         <v>5</v>
       </c>
       <c r="M128" s="17">
-        <f>COUNTIF(F128:J128,"Present")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="N128" s="17">
-        <f>L128-M128</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="15.6">
       <c r="A129" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>170</v>
+        <v>254</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="16">
-        <f>M129/L129*100</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F129" s="13" t="s">
         <v>89</v>
@@ -7672,30 +7694,30 @@
         <v>5</v>
       </c>
       <c r="M129" s="17">
-        <f>COUNTIF(F129:J129,"Present")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N129" s="17">
-        <f>L129-M129</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="15.6">
       <c r="A130" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>168</v>
+        <v>252</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D130" s="16">
-        <f>M130/L130*100</f>
+        <f t="shared" ref="D130:D166" si="12">M130/L130*100</f>
         <v>60</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F130" s="17" t="s">
         <v>89</v>
@@ -7719,30 +7741,30 @@
         <v>5</v>
       </c>
       <c r="M130" s="17">
-        <f>COUNTIF(F130:J130,"Present")</f>
+        <f t="shared" ref="M130:M166" si="13">COUNTIF(F130:J130,"Present")</f>
         <v>3</v>
       </c>
       <c r="N130" s="17">
-        <f>L130-M130</f>
+        <f t="shared" ref="N130:N161" si="14">L130-M130</f>
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="15.6">
       <c r="A131" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B131" s="23" t="s">
-        <v>174</v>
+        <v>258</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="16">
-        <f>M131/L131*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F131" s="13" t="s">
         <v>89</v>
@@ -7766,30 +7788,30 @@
         <v>5</v>
       </c>
       <c r="M131" s="17">
-        <f>COUNTIF(F131:J131,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N131" s="17">
-        <f>L131-M131</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="15.6">
       <c r="A132" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B132" s="23" t="s">
-        <v>180</v>
+        <v>263</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="16">
-        <f>M132/L132*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F132" s="13" t="s">
         <v>89</v>
@@ -7813,30 +7835,30 @@
         <v>5</v>
       </c>
       <c r="M132" s="17">
-        <f>COUNTIF(F132:J132,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N132" s="17">
-        <f>L132-M132</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="15.6">
       <c r="A133" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B133" s="23" t="s">
-        <v>183</v>
+        <v>266</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="16">
-        <f>M133/L133*100</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F133" s="13" t="s">
         <v>90</v>
@@ -7860,30 +7882,30 @@
         <v>5</v>
       </c>
       <c r="M133" s="17">
-        <f>COUNTIF(F133:J133,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N133" s="17">
-        <f>L133-M133</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="15.6">
       <c r="A134" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B134" s="23" t="s">
-        <v>159</v>
+        <v>243</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="16">
-        <f>M134/L134*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F134" s="17" t="s">
         <v>89</v>
@@ -7907,30 +7929,30 @@
         <v>5</v>
       </c>
       <c r="M134" s="17">
-        <f>COUNTIF(F134:J134,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N134" s="17">
-        <f>L134-M134</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="15.6">
       <c r="A135" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="B135" s="23" t="s">
-        <v>172</v>
+        <v>256</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D135" s="16">
-        <f>M135/L135*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F135" s="13" t="s">
         <v>89</v>
@@ -7954,30 +7976,30 @@
         <v>5</v>
       </c>
       <c r="M135" s="17">
-        <f>COUNTIF(F135:J135,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N135" s="17">
-        <f>L135-M135</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="15.6">
       <c r="A136" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>186</v>
+        <v>269</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D136" s="16">
-        <f>M136/L136*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F136" s="13" t="s">
         <v>89</v>
@@ -8001,30 +8023,30 @@
         <v>5</v>
       </c>
       <c r="M136" s="17">
-        <f>COUNTIF(F136:J136,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N136" s="17">
-        <f>L136-M136</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="15.6">
       <c r="A137" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B137" s="23" t="s">
-        <v>196</v>
+        <v>279</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="16">
-        <f>M137/L137*100</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F137" s="13" t="s">
         <v>89</v>
@@ -8048,30 +8070,30 @@
         <v>5</v>
       </c>
       <c r="M137" s="17">
-        <f>COUNTIF(F137:J137,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N137" s="17">
-        <f>L137-M137</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="15.6">
       <c r="A138" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B138" s="23" t="s">
-        <v>169</v>
+        <v>253</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="16">
-        <f>M138/L138*100</f>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="E138" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F138" s="16" t="s">
         <v>90</v>
@@ -8095,30 +8117,30 @@
         <v>5</v>
       </c>
       <c r="M138" s="17">
-        <f>COUNTIF(F138:J138,"Present")</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="N138" s="17">
-        <f>L138-M138</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:14" s="11" customFormat="1" ht="15.6">
       <c r="A139" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>188</v>
+        <v>271</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="C139" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D139" s="16">
-        <f>M139/L139*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F139" s="13" t="s">
         <v>89</v>
@@ -8142,30 +8164,30 @@
         <v>5</v>
       </c>
       <c r="M139" s="17">
-        <f>COUNTIF(F139:J139,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N139" s="17">
-        <f>L139-M139</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="15.6">
       <c r="A140" s="13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="16">
-        <f>M140/L140*100</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F140" s="17" t="s">
         <v>89</v>
@@ -8189,30 +8211,30 @@
         <v>5</v>
       </c>
       <c r="M140" s="17">
-        <f>COUNTIF(F140:J140,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N140" s="17">
-        <f>L140-M140</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="15.6">
       <c r="A141" s="13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D141" s="16">
-        <f>M141/L141*100</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F141" s="13" t="s">
         <v>89</v>
@@ -8236,30 +8258,30 @@
         <v>5</v>
       </c>
       <c r="M141" s="17">
-        <f>COUNTIF(F141:J141,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N141" s="17">
-        <f>L141-M141</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="15.6">
       <c r="A142" s="17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="16">
-        <f>M142/L142*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>89</v>
@@ -8283,30 +8305,30 @@
         <v>5</v>
       </c>
       <c r="M142" s="17">
-        <f>COUNTIF(F142:J142,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N142" s="17">
-        <f>L142-M142</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="15.6">
       <c r="A143" s="13" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C143" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D143" s="16">
-        <f>M143/L143*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F143" s="13" t="s">
         <v>89</v>
@@ -8330,30 +8352,30 @@
         <v>5</v>
       </c>
       <c r="M143" s="17">
-        <f>COUNTIF(F143:J143,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N143" s="17">
-        <f>L143-M143</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="15.6">
       <c r="A144" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D144" s="16">
-        <f>M144/L144*100</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F144" s="16" t="s">
         <v>89</v>
@@ -8377,30 +8399,30 @@
         <v>5</v>
       </c>
       <c r="M144" s="17">
-        <f>COUNTIF(F144:J144,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N144" s="17">
-        <f>L144-M144</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="15.6">
       <c r="A145" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="16">
-        <f>M145/L145*100</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F145" s="13" t="s">
         <v>90</v>
@@ -8424,30 +8446,30 @@
         <v>5</v>
       </c>
       <c r="M145" s="17">
-        <f>COUNTIF(F145:J145,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N145" s="17">
-        <f>L145-M145</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="15.6">
       <c r="A146" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="16">
-        <f>M146/L146*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F146" s="17" t="s">
         <v>89</v>
@@ -8471,30 +8493,30 @@
         <v>5</v>
       </c>
       <c r="M146" s="17">
-        <f>COUNTIF(F146:J146,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N146" s="17">
-        <f>L146-M146</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="15.6">
       <c r="A147" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="16">
-        <f>M147/L147*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F147" s="17" t="s">
         <v>89</v>
@@ -8518,30 +8540,30 @@
         <v>5</v>
       </c>
       <c r="M147" s="17">
-        <f>COUNTIF(F147:J147,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N147" s="17">
-        <f>L147-M147</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="15.6">
       <c r="A148" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C148" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D148" s="16">
-        <f>M148/L148*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F148" s="16" t="s">
         <v>89</v>
@@ -8565,30 +8587,30 @@
         <v>5</v>
       </c>
       <c r="M148" s="17">
-        <f>COUNTIF(F148:J148,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N148" s="17">
-        <f>L148-M148</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="15.6">
       <c r="A149" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D149" s="16">
-        <f>M149/L149*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F149" s="16" t="s">
         <v>89</v>
@@ -8612,30 +8634,30 @@
         <v>5</v>
       </c>
       <c r="M149" s="17">
-        <f>COUNTIF(F149:J149,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N149" s="17">
-        <f>L149-M149</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="15.6">
       <c r="A150" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>289</v>
+        <v>313</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="C150" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D150" s="16">
-        <f>M150/L150*100</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F150" s="17" t="s">
         <v>90</v>
@@ -8659,30 +8681,30 @@
         <v>5</v>
       </c>
       <c r="M150" s="17">
-        <f>COUNTIF(F150:J150,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N150" s="17">
-        <f>L150-M150</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="15.6">
       <c r="A151" s="17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D151" s="16">
-        <f>M151/L151*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F151" s="16" t="s">
         <v>89</v>
@@ -8706,30 +8728,30 @@
         <v>5</v>
       </c>
       <c r="M151" s="17">
-        <f>COUNTIF(F151:J151,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N151" s="17">
-        <f>L151-M151</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="15.6">
       <c r="A152" s="13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C152" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D152" s="16">
-        <f>M152/L152*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F152" s="13" t="s">
         <v>89</v>
@@ -8753,30 +8775,30 @@
         <v>5</v>
       </c>
       <c r="M152" s="17">
-        <f>COUNTIF(F152:J152,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N152" s="17">
-        <f>L152-M152</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="15.6">
       <c r="A153" s="13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="16">
-        <f>M153/L153*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F153" s="13" t="s">
         <v>89</v>
@@ -8800,30 +8822,30 @@
         <v>5</v>
       </c>
       <c r="M153" s="17">
-        <f>COUNTIF(F153:J153,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N153" s="17">
-        <f>L153-M153</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="15.6">
       <c r="A154" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D154" s="16">
-        <f>M154/L154*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F154" s="17" t="s">
         <v>89</v>
@@ -8847,30 +8869,30 @@
         <v>5</v>
       </c>
       <c r="M154" s="17">
-        <f>COUNTIF(F154:J154,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N154" s="17">
-        <f>L154-M154</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="15.6">
       <c r="A155" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C155" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D155" s="16">
-        <f>M155/L155*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F155" s="13" t="s">
         <v>89</v>
@@ -8894,30 +8916,30 @@
         <v>5</v>
       </c>
       <c r="M155" s="17">
-        <f>COUNTIF(F155:J155,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N155" s="17">
-        <f>L155-M155</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="15.6">
       <c r="A156" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D156" s="16">
-        <f>M156/L156*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F156" s="17" t="s">
         <v>89</v>
@@ -8941,30 +8963,30 @@
         <v>5</v>
       </c>
       <c r="M156" s="17">
-        <f>COUNTIF(F156:J156,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N156" s="17">
-        <f>L156-M156</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="15.6">
       <c r="A157" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D157" s="16">
-        <f>M157/L157*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F157" s="16" t="s">
         <v>89</v>
@@ -8988,30 +9010,30 @@
         <v>5</v>
       </c>
       <c r="M157" s="17">
-        <f>COUNTIF(F157:J157,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N157" s="17">
-        <f>L157-M157</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="15.6">
       <c r="A158" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="16">
-        <f>M158/L158*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F158" s="13" t="s">
         <v>89</v>
@@ -9035,30 +9057,30 @@
         <v>5</v>
       </c>
       <c r="M158" s="17">
-        <f>COUNTIF(F158:J158,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N158" s="17">
-        <f>L158-M158</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="15.6">
       <c r="A159" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="B159" s="23" t="s">
-        <v>288</v>
+        <v>312</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>286</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D159" s="16">
-        <f>M159/L159*100</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F159" s="17" t="s">
         <v>89</v>
@@ -9082,30 +9104,30 @@
         <v>5</v>
       </c>
       <c r="M159" s="17">
-        <f>COUNTIF(F159:J159,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N159" s="17">
-        <f>L159-M159</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="15.6">
       <c r="A160" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B160" s="24" t="s">
-        <v>291</v>
+        <v>314</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D160" s="16">
-        <f>M160/L160*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F160" s="16" t="s">
         <v>89</v>
@@ -9129,30 +9151,30 @@
         <v>5</v>
       </c>
       <c r="M160" s="17">
-        <f>COUNTIF(F160:J160,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N160" s="17">
-        <f>L160-M160</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="15.6">
       <c r="A161" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="B161" s="24" t="s">
-        <v>306</v>
+        <v>328</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D161" s="16">
-        <f>M161/L161*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F161" s="16" t="s">
         <v>89</v>
@@ -9176,30 +9198,30 @@
         <v>5</v>
       </c>
       <c r="M161" s="17">
-        <f>COUNTIF(F161:J161,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N161" s="17">
-        <f>L161-M161</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="15.6">
       <c r="A162" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="B162" s="23" t="s">
-        <v>287</v>
+        <v>311</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D162" s="16">
-        <f>M162/L162*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F162" s="17" t="s">
         <v>89</v>
@@ -9223,30 +9245,30 @@
         <v>5</v>
       </c>
       <c r="M162" s="17">
-        <f>COUNTIF(F162:J162,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N162" s="17">
-        <f>L162-M162</f>
+        <f t="shared" ref="N162:N166" si="15">L162-M162</f>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="15.6">
       <c r="A163" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D163" s="16">
-        <f>M163/L163*100</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F163" s="13" t="s">
         <v>90</v>
@@ -9270,30 +9292,30 @@
         <v>5</v>
       </c>
       <c r="M163" s="17">
-        <f>COUNTIF(F163:J163,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N163" s="17">
-        <f>L163-M163</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="15.6">
       <c r="A164" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D164" s="16">
-        <f>M164/L164*100</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F164" s="16" t="s">
         <v>89</v>
@@ -9317,30 +9339,30 @@
         <v>5</v>
       </c>
       <c r="M164" s="17">
-        <f>COUNTIF(F164:J164,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="N164" s="17">
-        <f>L164-M164</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="15.6">
       <c r="A165" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="16">
-        <f>M165/L165*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F165" s="13" t="s">
         <v>89</v>
@@ -9364,30 +9386,30 @@
         <v>5</v>
       </c>
       <c r="M165" s="17">
-        <f>COUNTIF(F165:J165,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N165" s="17">
-        <f>L165-M165</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="18" customFormat="1" ht="15.6">
+    <row r="166" spans="1:14" ht="15.6">
       <c r="A166" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D166" s="16">
-        <f>M166/L166*100</f>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F166" s="13" t="s">
         <v>89</v>
@@ -9411,12 +9433,41 @@
         <v>5</v>
       </c>
       <c r="M166" s="17">
-        <f>COUNTIF(F166:J166,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N166" s="17">
-        <f>L166-M166</f>
+        <f t="shared" si="15"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="15">
+      <c r="E167" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="F167" s="25">
+        <f>COUNTIF(F2:F166,"Absent")</f>
+        <v>27</v>
+      </c>
+      <c r="G167" s="25">
+        <f>COUNTIF(G2:G166,"Absent")</f>
+        <v>25</v>
+      </c>
+      <c r="H167" s="25">
+        <f t="shared" ref="H167:K167" si="16">COUNTIF(H2:H166,"Absent")</f>
+        <v>93</v>
+      </c>
+      <c r="I167" s="25">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="J167" s="25">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="K167" s="25">
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/attendance_data.xlsx
+++ b/attendance_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\attendance_website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B36F06-41DC-4F76-8130-318FC1E55C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BA789B-FFB4-471A-967F-275E582BA360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F33DA19-6151-4346-A3A3-5311E8A75F56}"/>
   </bookViews>
@@ -1163,7 +1163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1214,9 +1214,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1538,7 +1535,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+      <selection pane="topRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1603,7 +1600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30">
+    <row r="2" spans="1:17" ht="15.6">
       <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
@@ -1654,7 +1651,7 @@
       </c>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="30">
+    <row r="3" spans="1:17" ht="15.6">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -1705,7 +1702,7 @@
       </c>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="30">
+    <row r="4" spans="1:17" ht="15.6">
       <c r="A4" s="6" t="s">
         <v>105</v>
       </c>
@@ -1756,7 +1753,7 @@
       </c>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="30">
+    <row r="5" spans="1:17" ht="15.6">
       <c r="A5" s="6" t="s">
         <v>104</v>
       </c>
@@ -1807,7 +1804,7 @@
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="30">
+    <row r="6" spans="1:17" ht="15.6">
       <c r="A6" s="10" t="s">
         <v>107</v>
       </c>
@@ -1858,7 +1855,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="30">
+    <row r="7" spans="1:17" ht="15.6">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -1909,7 +1906,7 @@
       </c>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="30">
+    <row r="8" spans="1:17" ht="15.6">
       <c r="A8" s="10" t="s">
         <v>106</v>
       </c>
@@ -1960,7 +1957,7 @@
       </c>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="30">
+    <row r="9" spans="1:17" ht="15.6">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1996,7 +1993,7 @@
         <v>89</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M9" s="10">
         <v>5</v>
@@ -2010,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30">
+    <row r="10" spans="1:17" ht="15.6">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -2060,7 +2057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30">
+    <row r="11" spans="1:17" ht="15.6">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -2110,7 +2107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30">
+    <row r="12" spans="1:17" ht="15.6">
       <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
@@ -2160,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30">
+    <row r="13" spans="1:17" ht="15.6">
       <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
@@ -2210,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30">
+    <row r="14" spans="1:17" ht="15.6">
       <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30">
+    <row r="15" spans="1:17" ht="15.6">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -2310,7 +2307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30">
+    <row r="16" spans="1:17" ht="15.6">
       <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
@@ -2360,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30">
+    <row r="17" spans="1:15" ht="15.6">
       <c r="A17" s="6" t="s">
         <v>94</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30">
+    <row r="18" spans="1:15" ht="15.6">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -2460,7 +2457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30">
+    <row r="19" spans="1:15" ht="15.6">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -2510,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="30">
+    <row r="20" spans="1:15" ht="15.6">
       <c r="A20" s="6" t="s">
         <v>92</v>
       </c>
@@ -2560,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="30">
+    <row r="21" spans="1:15" ht="15.6">
       <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
@@ -2610,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30">
+    <row r="22" spans="1:15" ht="15.6">
       <c r="A22" s="6" t="s">
         <v>95</v>
       </c>
@@ -2660,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30">
+    <row r="23" spans="1:15" ht="15.6">
       <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
@@ -2710,7 +2707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30">
+    <row r="24" spans="1:15" ht="15.6">
       <c r="A24" s="10" t="s">
         <v>108</v>
       </c>
@@ -2760,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30">
+    <row r="25" spans="1:15" ht="15.6">
       <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
@@ -2810,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30">
+    <row r="26" spans="1:15" ht="15.6">
       <c r="A26" s="6" t="s">
         <v>40</v>
       </c>
@@ -2860,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30">
+    <row r="27" spans="1:15" ht="15.6">
       <c r="A27" s="10" t="s">
         <v>22</v>
       </c>
@@ -2910,7 +2907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="30">
+    <row r="28" spans="1:15" ht="15.6">
       <c r="A28" s="6" t="s">
         <v>100</v>
       </c>
@@ -2960,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="30">
+    <row r="29" spans="1:15" ht="15.6">
       <c r="A29" s="6" t="s">
         <v>96</v>
       </c>
@@ -3010,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="30">
+    <row r="30" spans="1:15" ht="15.6">
       <c r="A30" s="10" t="s">
         <v>16</v>
       </c>
@@ -3060,7 +3057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="30">
+    <row r="31" spans="1:15" ht="15.6">
       <c r="A31" s="6" t="s">
         <v>38</v>
       </c>
@@ -3110,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="30">
+    <row r="32" spans="1:15" ht="15.6">
       <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
@@ -3160,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30">
+    <row r="33" spans="1:15" ht="15.6">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -3210,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30">
+    <row r="34" spans="1:15" ht="15.6">
       <c r="A34" s="10" t="s">
         <v>18</v>
       </c>
@@ -3260,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30">
+    <row r="35" spans="1:15" ht="15.6">
       <c r="A35" s="10" t="s">
         <v>109</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30">
+    <row r="36" spans="1:15" ht="15.6">
       <c r="A36" s="6" t="s">
         <v>98</v>
       </c>
@@ -3360,7 +3357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="30">
+    <row r="37" spans="1:15" ht="15.6">
       <c r="A37" s="6" t="s">
         <v>103</v>
       </c>
@@ -3410,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30">
+    <row r="38" spans="1:15" ht="15.6">
       <c r="A38" s="10" t="s">
         <v>20</v>
       </c>
@@ -3460,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30">
+    <row r="39" spans="1:15" ht="15.6">
       <c r="A39" s="10" t="s">
         <v>14</v>
       </c>
@@ -3510,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30">
+    <row r="40" spans="1:15" ht="15.6">
       <c r="A40" s="10" t="s">
         <v>25</v>
       </c>
@@ -3560,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="30">
+    <row r="41" spans="1:15" ht="15.6">
       <c r="A41" s="6" t="s">
         <v>102</v>
       </c>
@@ -3610,7 +3607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="30">
+    <row r="42" spans="1:15" ht="15.6">
       <c r="A42" s="10" t="s">
         <v>24</v>
       </c>
@@ -3660,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30">
+    <row r="43" spans="1:15" ht="15.6">
       <c r="A43" s="6" t="s">
         <v>93</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30">
+    <row r="44" spans="1:15" ht="15.6">
       <c r="A44" s="6" t="s">
         <v>97</v>
       </c>
@@ -3760,7 +3757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30">
+    <row r="45" spans="1:15" ht="15.6">
       <c r="A45" s="6" t="s">
         <v>101</v>
       </c>
@@ -3810,7 +3807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="30">
+    <row r="46" spans="1:15" ht="15.6">
       <c r="A46" s="6" t="s">
         <v>34</v>
       </c>
@@ -3860,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="30">
+    <row r="47" spans="1:15" ht="15.6">
       <c r="A47" s="6" t="s">
         <v>35</v>
       </c>
@@ -3910,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="30">
+    <row r="48" spans="1:15" ht="15.6">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
@@ -3960,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="30">
+    <row r="49" spans="1:15" ht="15.6">
       <c r="A49" s="10" t="s">
         <v>23</v>
       </c>
@@ -4010,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="30">
+    <row r="50" spans="1:15" ht="15.6">
       <c r="A50" s="10" t="s">
         <v>110</v>
       </c>
@@ -4060,7 +4057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="30">
+    <row r="51" spans="1:15" ht="15.6">
       <c r="A51" s="6" t="s">
         <v>215</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30">
+    <row r="52" spans="1:15" ht="15.6">
       <c r="A52" s="6" t="s">
         <v>235</v>
       </c>
@@ -4160,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="30">
+    <row r="53" spans="1:15" ht="15.6">
       <c r="A53" s="10" t="s">
         <v>206</v>
       </c>
@@ -4210,7 +4207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="30">
+    <row r="54" spans="1:15" ht="15.6">
       <c r="A54" s="6" t="s">
         <v>214</v>
       </c>
@@ -4260,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="30">
+    <row r="55" spans="1:15" ht="15.6">
       <c r="A55" s="6" t="s">
         <v>213</v>
       </c>
@@ -4310,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="30">
+    <row r="56" spans="1:15" ht="15.6">
       <c r="A56" s="10" t="s">
         <v>202</v>
       </c>
@@ -4360,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="30">
+    <row r="57" spans="1:15" ht="15.6">
       <c r="A57" s="10" t="s">
         <v>234</v>
       </c>
@@ -4410,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="30">
+    <row r="58" spans="1:15" ht="15.6">
       <c r="A58" s="6" t="s">
         <v>230</v>
       </c>
@@ -4460,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="30">
+    <row r="59" spans="1:15" ht="15.6">
       <c r="A59" s="9" t="s">
         <v>217</v>
       </c>
@@ -4510,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="30">
+    <row r="60" spans="1:15" ht="15.6">
       <c r="A60" s="9" t="s">
         <v>216</v>
       </c>
@@ -4560,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="30">
+    <row r="61" spans="1:15" ht="15.6">
       <c r="A61" s="6" t="s">
         <v>219</v>
       </c>
@@ -4610,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="30">
+    <row r="62" spans="1:15" ht="15.6">
       <c r="A62" s="6" t="s">
         <v>218</v>
       </c>
@@ -4660,7 +4657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="30">
+    <row r="63" spans="1:15" ht="15.6">
       <c r="A63" s="10" t="s">
         <v>203</v>
       </c>
@@ -4710,7 +4707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="30">
+    <row r="64" spans="1:15" ht="15.6">
       <c r="A64" s="10" t="s">
         <v>240</v>
       </c>
@@ -4760,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="30">
+    <row r="65" spans="1:15" ht="15.6">
       <c r="A65" s="6" t="s">
         <v>221</v>
       </c>
@@ -4810,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="30">
+    <row r="66" spans="1:15" ht="15.6">
       <c r="A66" s="6" t="s">
         <v>236</v>
       </c>
@@ -4860,7 +4857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="30">
+    <row r="67" spans="1:15" ht="15.6">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -4910,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="30">
+    <row r="68" spans="1:15" ht="15.6">
       <c r="A68" s="6" t="s">
         <v>231</v>
       </c>
@@ -4960,7 +4957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="30">
+    <row r="69" spans="1:15" ht="15.6">
       <c r="A69" s="6" t="s">
         <v>222</v>
       </c>
@@ -5010,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="30">
+    <row r="70" spans="1:15" ht="15.6">
       <c r="A70" s="6" t="s">
         <v>212</v>
       </c>
@@ -5060,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="30">
+    <row r="71" spans="1:15" ht="15.6">
       <c r="A71" s="6" t="s">
         <v>232</v>
       </c>
@@ -5110,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="30">
+    <row r="72" spans="1:15" ht="15.6">
       <c r="A72" s="10" t="s">
         <v>205</v>
       </c>
@@ -5160,7 +5157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="30">
+    <row r="73" spans="1:15" ht="15.6">
       <c r="A73" s="10" t="s">
         <v>209</v>
       </c>
@@ -5210,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="30">
+    <row r="74" spans="1:15" ht="15.6">
       <c r="A74" s="10" t="s">
         <v>207</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="30">
+    <row r="75" spans="1:15" ht="15.6">
       <c r="A75" s="10" t="s">
         <v>207</v>
       </c>
@@ -5310,7 +5307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="30">
+    <row r="76" spans="1:15" ht="15.6">
       <c r="A76" s="10" t="s">
         <v>204</v>
       </c>
@@ -5360,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="30">
+    <row r="77" spans="1:15" ht="15.6">
       <c r="A77" s="6" t="s">
         <v>233</v>
       </c>
@@ -5410,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="30">
+    <row r="78" spans="1:15" ht="15.6">
       <c r="A78" s="6" t="s">
         <v>238</v>
       </c>
@@ -5460,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="30">
+    <row r="79" spans="1:15" ht="15.6">
       <c r="A79" s="6" t="s">
         <v>227</v>
       </c>
@@ -5510,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="30">
+    <row r="80" spans="1:15" ht="15.6">
       <c r="A80" s="6" t="s">
         <v>224</v>
       </c>
@@ -5560,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="30">
+    <row r="81" spans="1:15" ht="15.6">
       <c r="A81" s="10" t="s">
         <v>201</v>
       </c>
@@ -5610,7 +5607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="30">
+    <row r="82" spans="1:15" ht="15.6">
       <c r="A82" s="6" t="s">
         <v>228</v>
       </c>
@@ -5660,7 +5657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="30">
+    <row r="83" spans="1:15" ht="15.6">
       <c r="A83" s="6" t="s">
         <v>237</v>
       </c>
@@ -5710,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="30">
+    <row r="84" spans="1:15" ht="15.6">
       <c r="A84" s="10" t="s">
         <v>200</v>
       </c>
@@ -5760,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="30">
+    <row r="85" spans="1:15" ht="15.6">
       <c r="A85" s="10" t="s">
         <v>241</v>
       </c>
@@ -5810,7 +5807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="30">
+    <row r="86" spans="1:15" ht="15.6">
       <c r="A86" s="6" t="s">
         <v>223</v>
       </c>
@@ -5860,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="30">
+    <row r="87" spans="1:15" ht="15.6">
       <c r="A87" s="10" t="s">
         <v>208</v>
       </c>
@@ -5910,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="30">
+    <row r="88" spans="1:15" ht="15.6">
       <c r="A88" s="6" t="s">
         <v>229</v>
       </c>
@@ -5960,7 +5957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="30">
+    <row r="89" spans="1:15" ht="15.6">
       <c r="A89" s="6" t="s">
         <v>220</v>
       </c>
@@ -6010,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="30">
+    <row r="90" spans="1:15" ht="15.6">
       <c r="A90" s="10" t="s">
         <v>210</v>
       </c>
@@ -6060,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="30">
+    <row r="91" spans="1:15" ht="15.6">
       <c r="A91" s="6" t="s">
         <v>226</v>
       </c>
@@ -6110,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="30">
+    <row r="92" spans="1:15" ht="15.6">
       <c r="A92" s="6" t="s">
         <v>225</v>
       </c>
@@ -6160,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="30">
+    <row r="93" spans="1:15" ht="15.6">
       <c r="A93" s="10" t="s">
         <v>239</v>
       </c>
@@ -6210,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="30">
+    <row r="94" spans="1:15" ht="15.6">
       <c r="A94" s="6" t="s">
         <v>211</v>
       </c>
@@ -6260,7 +6257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="30">
+    <row r="95" spans="1:15" ht="15.6">
       <c r="A95" s="10" t="s">
         <v>247</v>
       </c>
@@ -6310,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="30">
+    <row r="96" spans="1:15" ht="15.6">
       <c r="A96" s="10" t="s">
         <v>284</v>
       </c>
@@ -6360,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="30">
+    <row r="97" spans="1:15" ht="15.6">
       <c r="A97" s="6" t="s">
         <v>257</v>
       </c>
@@ -6410,7 +6407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="30">
+    <row r="98" spans="1:15" ht="15.6">
       <c r="A98" s="6" t="s">
         <v>272</v>
       </c>
@@ -6460,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="30">
+    <row r="99" spans="1:15" ht="15.6">
       <c r="A99" s="6" t="s">
         <v>268</v>
       </c>
@@ -6510,7 +6507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="30">
+    <row r="100" spans="1:15" ht="15.6">
       <c r="A100" s="6" t="s">
         <v>276</v>
       </c>
@@ -6560,7 +6557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="30">
+    <row r="101" spans="1:15" ht="15.6">
       <c r="A101" s="10" t="s">
         <v>242</v>
       </c>
@@ -6610,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="30">
+    <row r="102" spans="1:15" ht="15.6">
       <c r="A102" s="6" t="s">
         <v>278</v>
       </c>
@@ -6660,7 +6657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="30">
+    <row r="103" spans="1:15" ht="15.6">
       <c r="A103" s="8" t="s">
         <v>282</v>
       </c>
@@ -6710,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="30">
+    <row r="104" spans="1:15" ht="15.6">
       <c r="A104" s="6" t="s">
         <v>259</v>
       </c>
@@ -6760,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="30">
+    <row r="105" spans="1:15" ht="15.6">
       <c r="A105" s="6" t="s">
         <v>262</v>
       </c>
@@ -6810,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="30">
+    <row r="106" spans="1:15" ht="15.6">
       <c r="A106" s="10" t="s">
         <v>283</v>
       </c>
@@ -6860,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="30">
+    <row r="107" spans="1:15" ht="15.6">
       <c r="A107" s="6" t="s">
         <v>336</v>
       </c>
@@ -6910,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="30">
+    <row r="108" spans="1:15" ht="15.6">
       <c r="A108" s="8" t="s">
         <v>280</v>
       </c>
@@ -6960,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="30">
+    <row r="109" spans="1:15" ht="15.6">
       <c r="A109" s="6" t="s">
         <v>275</v>
       </c>
@@ -7010,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="30">
+    <row r="110" spans="1:15" ht="15.6">
       <c r="A110" s="6" t="s">
         <v>274</v>
       </c>
@@ -7060,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="30">
+    <row r="111" spans="1:15" ht="15.6">
       <c r="A111" s="10" t="s">
         <v>245</v>
       </c>
@@ -7110,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="30">
+    <row r="112" spans="1:15" ht="15.6">
       <c r="A112" s="6" t="s">
         <v>255</v>
       </c>
@@ -7160,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="30">
+    <row r="113" spans="1:17" ht="15.6">
       <c r="A113" s="6" t="s">
         <v>270</v>
       </c>
@@ -7210,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="30">
+    <row r="114" spans="1:17" ht="15.6">
       <c r="A114" s="6" t="s">
         <v>265</v>
       </c>
@@ -7260,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="30">
+    <row r="115" spans="1:17" ht="15.6">
       <c r="A115" s="6" t="s">
         <v>267</v>
       </c>
@@ -7310,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="30">
+    <row r="116" spans="1:17" ht="15.6">
       <c r="A116" s="6" t="s">
         <v>260</v>
       </c>
@@ -7360,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="30">
+    <row r="117" spans="1:17" ht="15.6">
       <c r="A117" s="6" t="s">
         <v>273</v>
       </c>
@@ -7410,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="30">
+    <row r="118" spans="1:17" ht="15.6">
       <c r="A118" s="10" t="s">
         <v>249</v>
       </c>
@@ -7460,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="30">
+    <row r="119" spans="1:17" ht="15.6">
       <c r="A119" s="6" t="s">
         <v>261</v>
       </c>
@@ -7510,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="30">
+    <row r="120" spans="1:17" ht="15.6">
       <c r="A120" s="6" t="s">
         <v>277</v>
       </c>
@@ -7560,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="30">
+    <row r="121" spans="1:17" ht="15.6">
       <c r="A121" s="10" t="s">
         <v>250</v>
       </c>
@@ -7610,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="30">
+    <row r="122" spans="1:17" ht="15.6">
       <c r="A122" s="8" t="s">
         <v>281</v>
       </c>
@@ -7660,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="30">
+    <row r="123" spans="1:17" ht="15.6">
       <c r="A123" s="10" t="s">
         <v>244</v>
       </c>
@@ -7710,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="30">
+    <row r="124" spans="1:17" ht="15.6">
       <c r="A124" s="10" t="s">
         <v>13</v>
       </c>
@@ -7761,7 +7758,7 @@
       </c>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:17" ht="30">
+    <row r="125" spans="1:17" ht="15.6">
       <c r="A125" s="6" t="s">
         <v>264</v>
       </c>
@@ -7811,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="30">
+    <row r="126" spans="1:17" ht="15.6">
       <c r="A126" s="10" t="s">
         <v>251</v>
       </c>
@@ -7861,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="30">
+    <row r="127" spans="1:17" ht="15.6">
       <c r="A127" s="10" t="s">
         <v>248</v>
       </c>
@@ -7911,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="30">
+    <row r="128" spans="1:17" ht="15.6">
       <c r="A128" s="10" t="s">
         <v>246</v>
       </c>
@@ -7961,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="30">
+    <row r="129" spans="1:15" ht="15.6">
       <c r="A129" s="6" t="s">
         <v>254</v>
       </c>
@@ -8011,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="30">
+    <row r="130" spans="1:15" ht="15.6">
       <c r="A130" s="10" t="s">
         <v>252</v>
       </c>
@@ -8061,7 +8058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="30">
+    <row r="131" spans="1:15" ht="15.6">
       <c r="A131" s="6" t="s">
         <v>258</v>
       </c>
@@ -8111,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="30">
+    <row r="132" spans="1:15" ht="15.6">
       <c r="A132" s="6" t="s">
         <v>263</v>
       </c>
@@ -8161,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="30">
+    <row r="133" spans="1:15" ht="15.6">
       <c r="A133" s="6" t="s">
         <v>266</v>
       </c>
@@ -8211,7 +8208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="30">
+    <row r="134" spans="1:15" ht="15.6">
       <c r="A134" s="10" t="s">
         <v>243</v>
       </c>
@@ -8261,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="30">
+    <row r="135" spans="1:15" ht="15.6">
       <c r="A135" s="6" t="s">
         <v>256</v>
       </c>
@@ -8311,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="30">
+    <row r="136" spans="1:15" ht="15.6">
       <c r="A136" s="6" t="s">
         <v>269</v>
       </c>
@@ -8361,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="30">
+    <row r="137" spans="1:15" ht="15.6">
       <c r="A137" s="6" t="s">
         <v>279</v>
       </c>
@@ -8411,7 +8408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="30">
+    <row r="138" spans="1:15" ht="15.6">
       <c r="A138" s="9" t="s">
         <v>253</v>
       </c>
@@ -8461,7 +8458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="30">
+    <row r="139" spans="1:15" ht="15.6">
       <c r="A139" s="6" t="s">
         <v>271</v>
       </c>
@@ -8511,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="30">
+    <row r="140" spans="1:15" ht="15.6">
       <c r="A140" s="6" t="s">
         <v>325</v>
       </c>
@@ -8561,7 +8558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="30">
+    <row r="141" spans="1:15" ht="15.6">
       <c r="A141" s="6" t="s">
         <v>318</v>
       </c>
@@ -8611,7 +8608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="30">
+    <row r="142" spans="1:15" ht="15.6">
       <c r="A142" s="10" t="s">
         <v>333</v>
       </c>
@@ -8661,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="30">
+    <row r="143" spans="1:15" ht="15.6">
       <c r="A143" s="6" t="s">
         <v>340</v>
       </c>
@@ -8711,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="30">
+    <row r="144" spans="1:15" ht="15.6">
       <c r="A144" s="10" t="s">
         <v>330</v>
       </c>
@@ -8761,7 +8758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="30">
+    <row r="145" spans="1:15" ht="15.6">
       <c r="A145" s="6" t="s">
         <v>319</v>
       </c>
@@ -8811,7 +8808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="30">
+    <row r="146" spans="1:15" ht="15.6">
       <c r="A146" s="6" t="s">
         <v>327</v>
       </c>
@@ -8861,7 +8858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="30">
+    <row r="147" spans="1:15" ht="15.6">
       <c r="A147" s="6" t="s">
         <v>326</v>
       </c>
@@ -8911,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="30">
+    <row r="148" spans="1:15" ht="15.6">
       <c r="A148" s="10" t="s">
         <v>332</v>
       </c>
@@ -8961,7 +8958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="30">
+    <row r="149" spans="1:15" ht="15.6">
       <c r="A149" s="10" t="s">
         <v>331</v>
       </c>
@@ -9011,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="30">
+    <row r="150" spans="1:15" ht="15.6">
       <c r="A150" s="10" t="s">
         <v>313</v>
       </c>
@@ -9061,7 +9058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="30">
+    <row r="151" spans="1:15" ht="15.6">
       <c r="A151" s="10" t="s">
         <v>334</v>
       </c>
@@ -9111,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="30">
+    <row r="152" spans="1:15" ht="15.6">
       <c r="A152" s="6" t="s">
         <v>338</v>
       </c>
@@ -9161,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="30">
+    <row r="153" spans="1:15" ht="15.6">
       <c r="A153" s="6" t="s">
         <v>337</v>
       </c>
@@ -9211,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="30">
+    <row r="154" spans="1:15" ht="15.6">
       <c r="A154" s="6" t="s">
         <v>324</v>
       </c>
@@ -9261,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="30">
+    <row r="155" spans="1:15" ht="15.6">
       <c r="A155" s="10" t="s">
         <v>316</v>
       </c>
@@ -9311,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="30">
+    <row r="156" spans="1:15" ht="15.6">
       <c r="A156" s="6" t="s">
         <v>323</v>
       </c>
@@ -9361,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="30">
+    <row r="157" spans="1:15" ht="15.6">
       <c r="A157" s="10" t="s">
         <v>329</v>
       </c>
@@ -9411,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="30">
+    <row r="158" spans="1:15" ht="15.6">
       <c r="A158" s="6" t="s">
         <v>320</v>
       </c>
@@ -9461,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="30">
+    <row r="159" spans="1:15" ht="15.6">
       <c r="A159" s="10" t="s">
         <v>312</v>
       </c>
@@ -9511,7 +9508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="30">
+    <row r="160" spans="1:15" ht="15.6">
       <c r="A160" s="9" t="s">
         <v>314</v>
       </c>
@@ -9561,7 +9558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="30">
+    <row r="161" spans="1:15" ht="15.6">
       <c r="A161" s="9" t="s">
         <v>328</v>
       </c>
@@ -9611,7 +9608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="30">
+    <row r="162" spans="1:15" ht="15.6">
       <c r="A162" s="10" t="s">
         <v>311</v>
       </c>
@@ -9661,7 +9658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="30">
+    <row r="163" spans="1:15" ht="15.6">
       <c r="A163" s="6" t="s">
         <v>317</v>
       </c>
@@ -9711,7 +9708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="30">
+    <row r="164" spans="1:15" ht="15.6">
       <c r="A164" s="10" t="s">
         <v>322</v>
       </c>
@@ -9761,7 +9758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="30">
+    <row r="165" spans="1:15" ht="15.6">
       <c r="A165" s="6" t="s">
         <v>321</v>
       </c>
@@ -9811,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="30">
+    <row r="166" spans="1:15" ht="15.6">
       <c r="A166" s="6" t="s">
         <v>315</v>
       </c>
@@ -9861,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="30">
+    <row r="167" spans="1:15" ht="15">
       <c r="E167" s="8" t="s">
         <v>343</v>
       </c>
@@ -9874,7 +9871,7 @@
         <v>25</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" ref="H167:K167" si="16">COUNTIF(H2:H166,"Absent")</f>
+        <f t="shared" ref="H167:L167" si="16">COUNTIF(H2:H166,"Absent")</f>
         <v>93</v>
       </c>
       <c r="I167" s="17">
@@ -9889,7 +9886,10 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="L167" s="18"/>
+      <c r="L167" s="17">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A140:O166">

--- a/attendance_data.xlsx
+++ b/attendance_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\attendance_website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386D5393-E626-436A-B8B2-9B9F90A56703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0828E9-F5C9-443F-A3A4-4483C46A5072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F33DA19-6151-4346-A3A3-5311E8A75F56}"/>
   </bookViews>
@@ -1166,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1217,9 +1217,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1541,7 +1538,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K15" sqref="K15"/>
+      <selection pane="topRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1654,11 +1651,11 @@
         <v>5</v>
       </c>
       <c r="O2" s="10">
-        <f>COUNTIF(F2:J2,"Present")</f>
+        <f t="shared" ref="O2:O33" si="1">COUNTIF(F2:J2,"Present")</f>
         <v>3</v>
       </c>
       <c r="P2" s="10">
-        <f t="shared" ref="P2:P33" si="1">N2-O2</f>
+        <f t="shared" ref="P2:P33" si="2">N2-O2</f>
         <v>2</v>
       </c>
       <c r="R2" s="2"/>
@@ -1708,11 +1705,11 @@
         <v>5</v>
       </c>
       <c r="O3" s="10">
-        <f>COUNTIF(F3:J3,"Present")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P3" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R3" s="2"/>
@@ -1762,11 +1759,11 @@
         <v>5</v>
       </c>
       <c r="O4" s="10">
-        <f>COUNTIF(F4:J4,"Present")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P4" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R4" s="2"/>
@@ -1816,11 +1813,11 @@
         <v>5</v>
       </c>
       <c r="O5" s="10">
-        <f>COUNTIF(F5:J5,"Present")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="R5" s="2"/>
@@ -1870,11 +1867,11 @@
         <v>5</v>
       </c>
       <c r="O6" s="10">
-        <f>COUNTIF(F6:J6,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R6" s="2"/>
@@ -1924,11 +1921,11 @@
         <v>5</v>
       </c>
       <c r="O7" s="10">
-        <f>COUNTIF(F7:J7,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P7" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R7" s="2"/>
@@ -1978,11 +1975,11 @@
         <v>5</v>
       </c>
       <c r="O8" s="10">
-        <f>COUNTIF(F8:J8,"Present")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8" s="2"/>
@@ -2032,11 +2029,11 @@
         <v>5</v>
       </c>
       <c r="O9" s="10">
-        <f>COUNTIF(F9:J9,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2085,11 +2082,11 @@
         <v>5</v>
       </c>
       <c r="O10" s="10">
-        <f>COUNTIF(F10:J10,"Present")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2138,11 +2135,11 @@
         <v>5</v>
       </c>
       <c r="O11" s="10">
-        <f>COUNTIF(F11:J11,"Present")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2191,11 +2188,11 @@
         <v>5</v>
       </c>
       <c r="O12" s="10">
-        <f>COUNTIF(F12:J12,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2244,11 +2241,11 @@
         <v>5</v>
       </c>
       <c r="O13" s="10">
-        <f>COUNTIF(F13:J13,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2297,11 +2294,11 @@
         <v>5</v>
       </c>
       <c r="O14" s="10">
-        <f>COUNTIF(F14:J14,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2350,11 +2347,11 @@
         <v>5</v>
       </c>
       <c r="O15" s="10">
-        <f>COUNTIF(F15:J15,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2403,11 +2400,11 @@
         <v>5</v>
       </c>
       <c r="O16" s="10">
-        <f>COUNTIF(F16:J16,"Present")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2456,11 +2453,11 @@
         <v>5</v>
       </c>
       <c r="O17" s="10">
-        <f>COUNTIF(F17:J17,"Present")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2509,11 +2506,11 @@
         <v>5</v>
       </c>
       <c r="O18" s="10">
-        <f>COUNTIF(F18:J18,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2562,11 +2559,11 @@
         <v>5</v>
       </c>
       <c r="O19" s="10">
-        <f>COUNTIF(F19:J19,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2615,11 +2612,11 @@
         <v>5</v>
       </c>
       <c r="O20" s="10">
-        <f>COUNTIF(F20:J20,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2668,11 +2665,11 @@
         <v>5</v>
       </c>
       <c r="O21" s="10">
-        <f>COUNTIF(F21:J21,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2721,11 +2718,11 @@
         <v>5</v>
       </c>
       <c r="O22" s="10">
-        <f>COUNTIF(F22:J22,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2774,11 +2771,11 @@
         <v>5</v>
       </c>
       <c r="O23" s="10">
-        <f>COUNTIF(F23:J23,"Present")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2827,11 +2824,11 @@
         <v>5</v>
       </c>
       <c r="O24" s="10">
-        <f>COUNTIF(F24:J24,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2880,11 +2877,11 @@
         <v>5</v>
       </c>
       <c r="O25" s="10">
-        <f>COUNTIF(F25:J25,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2933,11 +2930,11 @@
         <v>5</v>
       </c>
       <c r="O26" s="10">
-        <f>COUNTIF(F26:J26,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2986,11 +2983,11 @@
         <v>5</v>
       </c>
       <c r="O27" s="10">
-        <f>COUNTIF(F27:J27,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3039,11 +3036,11 @@
         <v>5</v>
       </c>
       <c r="O28" s="10">
-        <f>COUNTIF(F28:J28,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3092,11 +3089,11 @@
         <v>5</v>
       </c>
       <c r="O29" s="10">
-        <f>COUNTIF(F29:J29,"Present")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -3145,11 +3142,11 @@
         <v>5</v>
       </c>
       <c r="O30" s="10">
-        <f>COUNTIF(F30:J30,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3198,11 +3195,11 @@
         <v>5</v>
       </c>
       <c r="O31" s="10">
-        <f>COUNTIF(F31:J31,"Present")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="P31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3251,11 +3248,11 @@
         <v>5</v>
       </c>
       <c r="O32" s="10">
-        <f>COUNTIF(F32:J32,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3304,11 +3301,11 @@
         <v>5</v>
       </c>
       <c r="O33" s="10">
-        <f>COUNTIF(F33:J33,"Present")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3323,7 +3320,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" ref="D34:D64" si="2">O34/N34*100</f>
+        <f t="shared" ref="D34:D64" si="3">O34/N34*100</f>
         <v>100</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -3357,11 +3354,11 @@
         <v>5</v>
       </c>
       <c r="O34" s="10">
-        <f>COUNTIF(F34:J34,"Present")</f>
+        <f t="shared" ref="O34:O65" si="4">COUNTIF(F34:J34,"Present")</f>
         <v>5</v>
       </c>
       <c r="P34" s="10">
-        <f t="shared" ref="P34:P64" si="3">N34-O34</f>
+        <f t="shared" ref="P34:P64" si="5">N34-O34</f>
         <v>0</v>
       </c>
     </row>
@@ -3376,7 +3373,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -3410,11 +3407,11 @@
         <v>5</v>
       </c>
       <c r="O35" s="10">
-        <f>COUNTIF(F35:J35,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P35" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3429,7 +3426,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -3463,11 +3460,11 @@
         <v>5</v>
       </c>
       <c r="O36" s="10">
-        <f>COUNTIF(F36:J36,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P36" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3482,7 +3479,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -3516,11 +3513,11 @@
         <v>5</v>
       </c>
       <c r="O37" s="10">
-        <f>COUNTIF(F37:J37,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P37" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3535,7 +3532,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -3569,11 +3566,11 @@
         <v>5</v>
       </c>
       <c r="O38" s="10">
-        <f>COUNTIF(F38:J38,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P38" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3588,7 +3585,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -3622,11 +3619,11 @@
         <v>5</v>
       </c>
       <c r="O39" s="10">
-        <f>COUNTIF(F39:J39,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P39" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3641,7 +3638,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -3675,11 +3672,11 @@
         <v>5</v>
       </c>
       <c r="O40" s="10">
-        <f>COUNTIF(F40:J40,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P40" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3694,7 +3691,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -3728,11 +3725,11 @@
         <v>5</v>
       </c>
       <c r="O41" s="10">
-        <f>COUNTIF(F41:J41,"Present")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P41" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -3747,7 +3744,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -3781,11 +3778,11 @@
         <v>5</v>
       </c>
       <c r="O42" s="10">
-        <f>COUNTIF(F42:J42,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P42" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3800,7 +3797,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -3834,11 +3831,11 @@
         <v>5</v>
       </c>
       <c r="O43" s="10">
-        <f>COUNTIF(F43:J43,"Present")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="P43" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -3853,7 +3850,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -3887,11 +3884,11 @@
         <v>5</v>
       </c>
       <c r="O44" s="10">
-        <f>COUNTIF(F44:J44,"Present")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P44" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3906,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -3940,11 +3937,11 @@
         <v>5</v>
       </c>
       <c r="O45" s="10">
-        <f>COUNTIF(F45:J45,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P45" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3959,7 +3956,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -3993,11 +3990,11 @@
         <v>5</v>
       </c>
       <c r="O46" s="10">
-        <f>COUNTIF(F46:J46,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P46" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4012,7 +4009,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -4046,11 +4043,11 @@
         <v>5</v>
       </c>
       <c r="O47" s="10">
-        <f>COUNTIF(F47:J47,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P47" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4065,7 +4062,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E48" s="8" t="s">
@@ -4099,11 +4096,11 @@
         <v>5</v>
       </c>
       <c r="O48" s="10">
-        <f>COUNTIF(F48:J48,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P48" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4118,7 +4115,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E49" s="8" t="s">
@@ -4152,11 +4149,11 @@
         <v>5</v>
       </c>
       <c r="O49" s="10">
-        <f>COUNTIF(F49:J49,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P49" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4171,7 +4168,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E50" s="8" t="s">
@@ -4205,11 +4202,11 @@
         <v>5</v>
       </c>
       <c r="O50" s="10">
-        <f>COUNTIF(F50:J50,"Present")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P50" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -4224,7 +4221,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E51" s="8" t="s">
@@ -4258,11 +4255,11 @@
         <v>5</v>
       </c>
       <c r="O51" s="10">
-        <f>COUNTIF(F51:J51,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P51" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4277,7 +4274,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -4311,11 +4308,11 @@
         <v>5</v>
       </c>
       <c r="O52" s="10">
-        <f>COUNTIF(F52:J52,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P52" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4330,7 +4327,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E53" s="8" t="s">
@@ -4364,11 +4361,11 @@
         <v>5</v>
       </c>
       <c r="O53" s="10">
-        <f>COUNTIF(F53:J53,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P53" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4383,7 +4380,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -4417,11 +4414,11 @@
         <v>5</v>
       </c>
       <c r="O54" s="10">
-        <f>COUNTIF(F54:J54,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P54" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4436,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -4470,11 +4467,11 @@
         <v>5</v>
       </c>
       <c r="O55" s="10">
-        <f>COUNTIF(F55:J55,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P55" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4489,7 +4486,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -4523,11 +4520,11 @@
         <v>5</v>
       </c>
       <c r="O56" s="10">
-        <f>COUNTIF(F56:J56,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P56" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4542,7 +4539,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E57" s="8" t="s">
@@ -4576,11 +4573,11 @@
         <v>5</v>
       </c>
       <c r="O57" s="10">
-        <f>COUNTIF(F57:J57,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P57" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4595,7 +4592,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E58" s="8" t="s">
@@ -4629,11 +4626,11 @@
         <v>5</v>
       </c>
       <c r="O58" s="10">
-        <f>COUNTIF(F58:J58,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P58" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4648,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E59" s="8" t="s">
@@ -4675,18 +4672,18 @@
       <c r="L59" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M59" s="9" t="s">
+      <c r="M59" s="10" t="s">
         <v>89</v>
       </c>
       <c r="N59" s="10">
         <v>5</v>
       </c>
       <c r="O59" s="10">
-        <f>COUNTIF(F59:J59,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P59" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4701,7 +4698,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E60" s="8" t="s">
@@ -4728,18 +4725,18 @@
       <c r="L60" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M60" s="9" t="s">
+      <c r="M60" s="10" t="s">
         <v>89</v>
       </c>
       <c r="N60" s="10">
         <v>5</v>
       </c>
       <c r="O60" s="10">
-        <f>COUNTIF(F60:J60,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P60" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4754,7 +4751,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -4788,11 +4785,11 @@
         <v>5</v>
       </c>
       <c r="O61" s="10">
-        <f>COUNTIF(F61:J61,"Present")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="P61" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4807,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -4841,11 +4838,11 @@
         <v>5</v>
       </c>
       <c r="O62" s="10">
-        <f>COUNTIF(F62:J62,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P62" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4860,7 +4857,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E63" s="8" t="s">
@@ -4894,11 +4891,11 @@
         <v>5</v>
       </c>
       <c r="O63" s="10">
-        <f>COUNTIF(F63:J63,"Present")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="P63" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4913,7 +4910,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E64" s="8" t="s">
@@ -4947,11 +4944,11 @@
         <v>5</v>
       </c>
       <c r="O64" s="10">
-        <f>COUNTIF(F64:J64,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P64" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4966,7 +4963,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="9">
-        <f t="shared" ref="D65:D96" si="4">O65/N65*100</f>
+        <f t="shared" ref="D65:D96" si="6">O65/N65*100</f>
         <v>80</v>
       </c>
       <c r="E65" s="8" t="s">
@@ -5000,11 +4997,11 @@
         <v>5</v>
       </c>
       <c r="O65" s="10">
-        <f>COUNTIF(F65:J65,"Present")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P65" s="10">
-        <f t="shared" ref="P65:P96" si="5">N65-O65</f>
+        <f t="shared" ref="P65:P96" si="7">N65-O65</f>
         <v>1</v>
       </c>
     </row>
@@ -5019,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E66" s="8" t="s">
@@ -5053,11 +5050,11 @@
         <v>5</v>
       </c>
       <c r="O66" s="10">
-        <f>COUNTIF(F66:J66,"Present")</f>
+        <f t="shared" ref="O66:O97" si="8">COUNTIF(F66:J66,"Present")</f>
         <v>3</v>
       </c>
       <c r="P66" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -5072,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E67" s="8" t="s">
@@ -5106,11 +5103,11 @@
         <v>5</v>
       </c>
       <c r="O67" s="10">
-        <f>COUNTIF(F67:J67,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P67" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5125,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -5159,11 +5156,11 @@
         <v>5</v>
       </c>
       <c r="O68" s="10">
-        <f>COUNTIF(F68:J68,"Present")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P68" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -5178,7 +5175,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E69" s="8" t="s">
@@ -5212,11 +5209,11 @@
         <v>5</v>
       </c>
       <c r="O69" s="10">
-        <f>COUNTIF(F69:J69,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P69" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5231,7 +5228,7 @@
         <v>5</v>
       </c>
       <c r="D70" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E70" s="8" t="s">
@@ -5265,11 +5262,11 @@
         <v>5</v>
       </c>
       <c r="O70" s="10">
-        <f>COUNTIF(F70:J70,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P70" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5284,7 +5281,7 @@
         <v>5</v>
       </c>
       <c r="D71" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E71" s="8" t="s">
@@ -5318,11 +5315,11 @@
         <v>5</v>
       </c>
       <c r="O71" s="10">
-        <f>COUNTIF(F71:J71,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P71" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5337,7 +5334,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E72" s="8" t="s">
@@ -5371,11 +5368,11 @@
         <v>5</v>
       </c>
       <c r="O72" s="10">
-        <f>COUNTIF(F72:J72,"Present")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P72" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -5390,7 +5387,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E73" s="8" t="s">
@@ -5424,11 +5421,11 @@
         <v>5</v>
       </c>
       <c r="O73" s="10">
-        <f>COUNTIF(F73:J73,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P73" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5443,7 +5440,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E74" s="8" t="s">
@@ -5477,11 +5474,11 @@
         <v>5</v>
       </c>
       <c r="O74" s="10">
-        <f>COUNTIF(F74:J74,"Present")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P74" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5496,7 +5493,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E75" s="8" t="s">
@@ -5530,11 +5527,11 @@
         <v>5</v>
       </c>
       <c r="O75" s="10">
-        <f>COUNTIF(F75:J75,"Present")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P75" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -5549,7 +5546,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E76" s="8" t="s">
@@ -5583,11 +5580,11 @@
         <v>5</v>
       </c>
       <c r="O76" s="10">
-        <f>COUNTIF(F76:J76,"Present")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5602,7 +5599,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E77" s="8" t="s">
@@ -5636,11 +5633,11 @@
         <v>5</v>
       </c>
       <c r="O77" s="10">
-        <f>COUNTIF(F77:J77,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5655,7 +5652,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E78" s="8" t="s">
@@ -5689,11 +5686,11 @@
         <v>5</v>
       </c>
       <c r="O78" s="10">
-        <f>COUNTIF(F78:J78,"Present")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P78" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5708,7 +5705,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E79" s="8" t="s">
@@ -5742,11 +5739,11 @@
         <v>5</v>
       </c>
       <c r="O79" s="10">
-        <f>COUNTIF(F79:J79,"Present")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P79" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5761,7 +5758,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E80" s="8" t="s">
@@ -5795,11 +5792,11 @@
         <v>5</v>
       </c>
       <c r="O80" s="10">
-        <f>COUNTIF(F80:J80,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P80" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5814,7 +5811,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E81" s="8" t="s">
@@ -5848,11 +5845,11 @@
         <v>5</v>
       </c>
       <c r="O81" s="10">
-        <f>COUNTIF(F81:J81,"Present")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P81" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -5867,7 +5864,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E82" s="8" t="s">
@@ -5901,11 +5898,11 @@
         <v>5</v>
       </c>
       <c r="O82" s="10">
-        <f>COUNTIF(F82:J82,"Present")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P82" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -5920,7 +5917,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E83" s="8" t="s">
@@ -5954,11 +5951,11 @@
         <v>5</v>
       </c>
       <c r="O83" s="10">
-        <f>COUNTIF(F83:J83,"Present")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5973,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E84" s="8" t="s">
@@ -6007,11 +6004,11 @@
         <v>5</v>
       </c>
       <c r="O84" s="10">
-        <f>COUNTIF(F84:J84,"Present")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P84" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6026,7 +6023,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E85" s="8" t="s">
@@ -6060,11 +6057,11 @@
         <v>5</v>
       </c>
       <c r="O85" s="10">
-        <f>COUNTIF(F85:J85,"Present")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P85" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -6079,7 +6076,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E86" s="8" t="s">
@@ -6113,11 +6110,11 @@
         <v>5</v>
       </c>
       <c r="O86" s="10">
-        <f>COUNTIF(F86:J86,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P86" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6132,7 +6129,7 @@
         <v>5</v>
       </c>
       <c r="D87" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E87" s="8" t="s">
@@ -6166,11 +6163,11 @@
         <v>5</v>
       </c>
       <c r="O87" s="10">
-        <f>COUNTIF(F87:J87,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P87" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6185,7 +6182,7 @@
         <v>5</v>
       </c>
       <c r="D88" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E88" s="8" t="s">
@@ -6219,11 +6216,11 @@
         <v>5</v>
       </c>
       <c r="O88" s="10">
-        <f>COUNTIF(F88:J88,"Present")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P88" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -6238,7 +6235,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E89" s="8" t="s">
@@ -6272,11 +6269,11 @@
         <v>5</v>
       </c>
       <c r="O89" s="10">
-        <f>COUNTIF(F89:J89,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P89" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6291,7 +6288,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E90" s="8" t="s">
@@ -6325,11 +6322,11 @@
         <v>5</v>
       </c>
       <c r="O90" s="10">
-        <f>COUNTIF(F90:J90,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P90" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6344,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E91" s="8" t="s">
@@ -6378,11 +6375,11 @@
         <v>5</v>
       </c>
       <c r="O91" s="10">
-        <f>COUNTIF(F91:J91,"Present")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P91" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6397,7 +6394,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E92" s="8" t="s">
@@ -6431,11 +6428,11 @@
         <v>5</v>
       </c>
       <c r="O92" s="10">
-        <f>COUNTIF(F92:J92,"Present")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P92" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6450,7 +6447,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E93" s="8" t="s">
@@ -6484,11 +6481,11 @@
         <v>5</v>
       </c>
       <c r="O93" s="10">
-        <f>COUNTIF(F93:J93,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P93" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6503,7 +6500,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E94" s="8" t="s">
@@ -6537,11 +6534,11 @@
         <v>5</v>
       </c>
       <c r="O94" s="10">
-        <f>COUNTIF(F94:J94,"Present")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P94" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -6556,7 +6553,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E95" s="8" t="s">
@@ -6590,11 +6587,11 @@
         <v>5</v>
       </c>
       <c r="O95" s="10">
-        <f>COUNTIF(F95:J95,"Present")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="P95" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6609,7 +6606,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E96" s="8" t="s">
@@ -6643,11 +6640,11 @@
         <v>5</v>
       </c>
       <c r="O96" s="10">
-        <f>COUNTIF(F96:J96,"Present")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="P96" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6662,7 +6659,7 @@
         <v>5</v>
       </c>
       <c r="D97" s="9">
-        <f t="shared" ref="D97:D129" si="6">O97/N97*100</f>
+        <f t="shared" ref="D97:D129" si="9">O97/N97*100</f>
         <v>40</v>
       </c>
       <c r="E97" s="8" t="s">
@@ -6696,11 +6693,11 @@
         <v>5</v>
       </c>
       <c r="O97" s="10">
-        <f>COUNTIF(F97:J97,"Present")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P97" s="10">
-        <f t="shared" ref="P97:P129" si="7">N97-O97</f>
+        <f t="shared" ref="P97:P129" si="10">N97-O97</f>
         <v>3</v>
       </c>
     </row>
@@ -6715,7 +6712,7 @@
         <v>5</v>
       </c>
       <c r="D98" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E98" s="8" t="s">
@@ -6749,11 +6746,11 @@
         <v>5</v>
       </c>
       <c r="O98" s="10">
-        <f>COUNTIF(F98:J98,"Present")</f>
+        <f t="shared" ref="O98:O129" si="11">COUNTIF(F98:J98,"Present")</f>
         <v>4</v>
       </c>
       <c r="P98" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6768,7 +6765,7 @@
         <v>5</v>
       </c>
       <c r="D99" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E99" s="8" t="s">
@@ -6802,11 +6799,11 @@
         <v>5</v>
       </c>
       <c r="O99" s="10">
-        <f>COUNTIF(F99:J99,"Present")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="P99" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -6821,7 +6818,7 @@
         <v>5</v>
       </c>
       <c r="D100" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E100" s="8" t="s">
@@ -6855,11 +6852,11 @@
         <v>5</v>
       </c>
       <c r="O100" s="10">
-        <f>COUNTIF(F100:J100,"Present")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="P100" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -6874,7 +6871,7 @@
         <v>5</v>
       </c>
       <c r="D101" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E101" s="8" t="s">
@@ -6908,11 +6905,11 @@
         <v>5</v>
       </c>
       <c r="O101" s="10">
-        <f>COUNTIF(F101:J101,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P101" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6927,7 +6924,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E102" s="8" t="s">
@@ -6961,11 +6958,11 @@
         <v>5</v>
       </c>
       <c r="O102" s="10">
-        <f>COUNTIF(F102:J102,"Present")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="P102" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -6980,7 +6977,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E103" s="8" t="s">
@@ -7014,11 +7011,11 @@
         <v>5</v>
       </c>
       <c r="O103" s="10">
-        <f>COUNTIF(F103:J103,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P103" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7033,7 +7030,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E104" s="8" t="s">
@@ -7067,11 +7064,11 @@
         <v>5</v>
       </c>
       <c r="O104" s="10">
-        <f>COUNTIF(F104:J104,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P104" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7086,7 +7083,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E105" s="8" t="s">
@@ -7120,11 +7117,11 @@
         <v>5</v>
       </c>
       <c r="O105" s="10">
-        <f>COUNTIF(F105:J105,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P105" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7139,7 +7136,7 @@
         <v>5</v>
       </c>
       <c r="D106" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E106" s="8" t="s">
@@ -7173,11 +7170,11 @@
         <v>5</v>
       </c>
       <c r="O106" s="10">
-        <f>COUNTIF(F106:J106,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P106" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7192,7 +7189,7 @@
         <v>5</v>
       </c>
       <c r="D107" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E107" s="8" t="s">
@@ -7226,11 +7223,11 @@
         <v>5</v>
       </c>
       <c r="O107" s="10">
-        <f>COUNTIF(F107:J107,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P107" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7245,7 +7242,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E108" s="8" t="s">
@@ -7279,11 +7276,11 @@
         <v>5</v>
       </c>
       <c r="O108" s="10">
-        <f>COUNTIF(F108:J108,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P108" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7298,7 +7295,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E109" s="8" t="s">
@@ -7332,11 +7329,11 @@
         <v>5</v>
       </c>
       <c r="O109" s="10">
-        <f>COUNTIF(F109:J109,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P109" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7351,7 +7348,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E110" s="8" t="s">
@@ -7385,11 +7382,11 @@
         <v>5</v>
       </c>
       <c r="O110" s="10">
-        <f>COUNTIF(F110:J110,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P110" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7404,7 +7401,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E111" s="8" t="s">
@@ -7438,11 +7435,11 @@
         <v>5</v>
       </c>
       <c r="O111" s="10">
-        <f>COUNTIF(F111:J111,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P111" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7457,7 +7454,7 @@
         <v>5</v>
       </c>
       <c r="D112" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E112" s="8" t="s">
@@ -7491,11 +7488,11 @@
         <v>5</v>
       </c>
       <c r="O112" s="10">
-        <f>COUNTIF(F112:J112,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P112" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7510,7 +7507,7 @@
         <v>5</v>
       </c>
       <c r="D113" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E113" s="8" t="s">
@@ -7544,11 +7541,11 @@
         <v>5</v>
       </c>
       <c r="O113" s="10">
-        <f>COUNTIF(F113:J113,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P113" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7563,7 +7560,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E114" s="8" t="s">
@@ -7597,11 +7594,11 @@
         <v>5</v>
       </c>
       <c r="O114" s="10">
-        <f>COUNTIF(F114:J114,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P114" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7616,7 +7613,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E115" s="8" t="s">
@@ -7650,11 +7647,11 @@
         <v>5</v>
       </c>
       <c r="O115" s="10">
-        <f>COUNTIF(F115:J115,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P115" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7669,7 +7666,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E116" s="8" t="s">
@@ -7703,11 +7700,11 @@
         <v>5</v>
       </c>
       <c r="O116" s="10">
-        <f>COUNTIF(F116:J116,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P116" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7722,7 +7719,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E117" s="8" t="s">
@@ -7756,11 +7753,11 @@
         <v>5</v>
       </c>
       <c r="O117" s="10">
-        <f>COUNTIF(F117:J117,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P117" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7775,7 +7772,7 @@
         <v>5</v>
       </c>
       <c r="D118" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E118" s="8" t="s">
@@ -7809,11 +7806,11 @@
         <v>5</v>
       </c>
       <c r="O118" s="10">
-        <f>COUNTIF(F118:J118,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P118" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7828,7 +7825,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E119" s="8" t="s">
@@ -7862,11 +7859,11 @@
         <v>5</v>
       </c>
       <c r="O119" s="10">
-        <f>COUNTIF(F119:J119,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P119" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7881,7 +7878,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E120" s="8" t="s">
@@ -7915,11 +7912,11 @@
         <v>5</v>
       </c>
       <c r="O120" s="10">
-        <f>COUNTIF(F120:J120,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P120" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7934,7 +7931,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E121" s="8" t="s">
@@ -7968,11 +7965,11 @@
         <v>5</v>
       </c>
       <c r="O121" s="10">
-        <f>COUNTIF(F121:J121,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P121" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7987,7 +7984,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E122" s="8" t="s">
@@ -8021,11 +8018,11 @@
         <v>5</v>
       </c>
       <c r="O122" s="10">
-        <f>COUNTIF(F122:J122,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P122" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8040,7 +8037,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E123" s="8" t="s">
@@ -8074,11 +8071,11 @@
         <v>5</v>
       </c>
       <c r="O123" s="10">
-        <f>COUNTIF(F123:J123,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P123" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8127,7 +8124,7 @@
         <v>5</v>
       </c>
       <c r="O124" s="10">
-        <f>COUNTIF(F124:J124,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P124" s="10">
@@ -8147,7 +8144,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E125" s="8" t="s">
@@ -8181,11 +8178,11 @@
         <v>5</v>
       </c>
       <c r="O125" s="10">
-        <f>COUNTIF(F125:J125,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P125" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -8200,7 +8197,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E126" s="8" t="s">
@@ -8234,11 +8231,11 @@
         <v>5</v>
       </c>
       <c r="O126" s="10">
-        <f>COUNTIF(F126:J126,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P126" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -8253,7 +8250,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E127" s="8" t="s">
@@ -8287,11 +8284,11 @@
         <v>5</v>
       </c>
       <c r="O127" s="10">
-        <f>COUNTIF(F127:J127,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P127" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8306,7 +8303,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="E128" s="8" t="s">
@@ -8340,11 +8337,11 @@
         <v>5</v>
       </c>
       <c r="O128" s="10">
-        <f>COUNTIF(F128:J128,"Present")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P128" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8359,7 +8356,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E129" s="8" t="s">
@@ -8393,11 +8390,11 @@
         <v>5</v>
       </c>
       <c r="O129" s="10">
-        <f>COUNTIF(F129:J129,"Present")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="P129" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -8412,7 +8409,7 @@
         <v>5</v>
       </c>
       <c r="D130" s="9">
-        <f t="shared" ref="D130:D166" si="8">O130/N130*100</f>
+        <f t="shared" ref="D130:D166" si="12">O130/N130*100</f>
         <v>60</v>
       </c>
       <c r="E130" s="8" t="s">
@@ -8446,11 +8443,11 @@
         <v>5</v>
       </c>
       <c r="O130" s="10">
-        <f>COUNTIF(F130:J130,"Present")</f>
+        <f t="shared" ref="O130:O166" si="13">COUNTIF(F130:J130,"Present")</f>
         <v>3</v>
       </c>
       <c r="P130" s="10">
-        <f t="shared" ref="P130:P161" si="9">N130-O130</f>
+        <f t="shared" ref="P130:P161" si="14">N130-O130</f>
         <v>2</v>
       </c>
     </row>
@@ -8465,7 +8462,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E131" s="8" t="s">
@@ -8499,11 +8496,11 @@
         <v>5</v>
       </c>
       <c r="O131" s="10">
-        <f>COUNTIF(F131:J131,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P131" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -8518,7 +8515,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E132" s="8" t="s">
@@ -8552,11 +8549,11 @@
         <v>5</v>
       </c>
       <c r="O132" s="10">
-        <f>COUNTIF(F132:J132,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P132" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8571,7 +8568,7 @@
         <v>5</v>
       </c>
       <c r="D133" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E133" s="8" t="s">
@@ -8605,11 +8602,11 @@
         <v>5</v>
       </c>
       <c r="O133" s="10">
-        <f>COUNTIF(F133:J133,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P133" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -8624,7 +8621,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E134" s="8" t="s">
@@ -8658,11 +8655,11 @@
         <v>5</v>
       </c>
       <c r="O134" s="10">
-        <f>COUNTIF(F134:J134,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P134" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8677,7 +8674,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E135" s="8" t="s">
@@ -8711,11 +8708,11 @@
         <v>5</v>
       </c>
       <c r="O135" s="10">
-        <f>COUNTIF(F135:J135,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P135" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -8730,7 +8727,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E136" s="8" t="s">
@@ -8764,11 +8761,11 @@
         <v>5</v>
       </c>
       <c r="O136" s="10">
-        <f>COUNTIF(F136:J136,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P136" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8783,7 +8780,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E137" s="8" t="s">
@@ -8817,11 +8814,11 @@
         <v>5</v>
       </c>
       <c r="O137" s="10">
-        <f>COUNTIF(F137:J137,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P137" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -8836,7 +8833,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="E138" s="8" t="s">
@@ -8870,11 +8867,11 @@
         <v>5</v>
       </c>
       <c r="O138" s="10">
-        <f>COUNTIF(F138:J138,"Present")</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="P138" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
@@ -8889,7 +8886,7 @@
         <v>5</v>
       </c>
       <c r="D139" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E139" s="8" t="s">
@@ -8923,11 +8920,11 @@
         <v>5</v>
       </c>
       <c r="O139" s="10">
-        <f>COUNTIF(F139:J139,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P139" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -8942,7 +8939,7 @@
         <v>5</v>
       </c>
       <c r="D140" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E140" s="8" t="s">
@@ -8976,11 +8973,11 @@
         <v>5</v>
       </c>
       <c r="O140" s="10">
-        <f>COUNTIF(F140:J140,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P140" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -8995,7 +8992,7 @@
         <v>5</v>
       </c>
       <c r="D141" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E141" s="8" t="s">
@@ -9029,11 +9026,11 @@
         <v>5</v>
       </c>
       <c r="O141" s="10">
-        <f>COUNTIF(F141:J141,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P141" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -9048,7 +9045,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E142" s="8" t="s">
@@ -9082,11 +9079,11 @@
         <v>5</v>
       </c>
       <c r="O142" s="10">
-        <f>COUNTIF(F142:J142,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P142" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9101,7 +9098,7 @@
         <v>5</v>
       </c>
       <c r="D143" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E143" s="8" t="s">
@@ -9135,11 +9132,11 @@
         <v>5</v>
       </c>
       <c r="O143" s="10">
-        <f>COUNTIF(F143:J143,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P143" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9154,7 +9151,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E144" s="8" t="s">
@@ -9188,11 +9185,11 @@
         <v>5</v>
       </c>
       <c r="O144" s="10">
-        <f>COUNTIF(F144:J144,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P144" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -9207,7 +9204,7 @@
         <v>5</v>
       </c>
       <c r="D145" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E145" s="8" t="s">
@@ -9241,11 +9238,11 @@
         <v>5</v>
       </c>
       <c r="O145" s="10">
-        <f>COUNTIF(F145:J145,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P145" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -9260,7 +9257,7 @@
         <v>5</v>
       </c>
       <c r="D146" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E146" s="8" t="s">
@@ -9294,11 +9291,11 @@
         <v>5</v>
       </c>
       <c r="O146" s="10">
-        <f>COUNTIF(F146:J146,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P146" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9313,7 +9310,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E147" s="8" t="s">
@@ -9347,11 +9344,11 @@
         <v>5</v>
       </c>
       <c r="O147" s="10">
-        <f>COUNTIF(F147:J147,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P147" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9366,7 +9363,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E148" s="8" t="s">
@@ -9400,11 +9397,11 @@
         <v>5</v>
       </c>
       <c r="O148" s="10">
-        <f>COUNTIF(F148:J148,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P148" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9419,7 +9416,7 @@
         <v>5</v>
       </c>
       <c r="D149" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E149" s="8" t="s">
@@ -9453,11 +9450,11 @@
         <v>5</v>
       </c>
       <c r="O149" s="10">
-        <f>COUNTIF(F149:J149,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P149" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9472,7 +9469,7 @@
         <v>5</v>
       </c>
       <c r="D150" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E150" s="8" t="s">
@@ -9506,11 +9503,11 @@
         <v>5</v>
       </c>
       <c r="O150" s="10">
-        <f>COUNTIF(F150:J150,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P150" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -9525,7 +9522,7 @@
         <v>5</v>
       </c>
       <c r="D151" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E151" s="8" t="s">
@@ -9559,11 +9556,11 @@
         <v>5</v>
       </c>
       <c r="O151" s="10">
-        <f>COUNTIF(F151:J151,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P151" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9578,7 +9575,7 @@
         <v>5</v>
       </c>
       <c r="D152" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E152" s="8" t="s">
@@ -9612,11 +9609,11 @@
         <v>5</v>
       </c>
       <c r="O152" s="10">
-        <f>COUNTIF(F152:J152,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P152" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9631,7 +9628,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E153" s="8" t="s">
@@ -9665,11 +9662,11 @@
         <v>5</v>
       </c>
       <c r="O153" s="10">
-        <f>COUNTIF(F153:J153,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P153" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9684,7 +9681,7 @@
         <v>5</v>
       </c>
       <c r="D154" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E154" s="8" t="s">
@@ -9718,11 +9715,11 @@
         <v>5</v>
       </c>
       <c r="O154" s="10">
-        <f>COUNTIF(F154:J154,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P154" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9737,7 +9734,7 @@
         <v>5</v>
       </c>
       <c r="D155" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E155" s="8" t="s">
@@ -9771,11 +9768,11 @@
         <v>5</v>
       </c>
       <c r="O155" s="10">
-        <f>COUNTIF(F155:J155,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P155" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9790,7 +9787,7 @@
         <v>5</v>
       </c>
       <c r="D156" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -9824,11 +9821,11 @@
         <v>5</v>
       </c>
       <c r="O156" s="10">
-        <f>COUNTIF(F156:J156,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P156" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9843,7 +9840,7 @@
         <v>5</v>
       </c>
       <c r="D157" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E157" s="8" t="s">
@@ -9877,11 +9874,11 @@
         <v>5</v>
       </c>
       <c r="O157" s="10">
-        <f>COUNTIF(F157:J157,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P157" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9896,7 +9893,7 @@
         <v>5</v>
       </c>
       <c r="D158" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E158" s="8" t="s">
@@ -9930,11 +9927,11 @@
         <v>5</v>
       </c>
       <c r="O158" s="10">
-        <f>COUNTIF(F158:J158,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P158" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -9949,7 +9946,7 @@
         <v>5</v>
       </c>
       <c r="D159" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E159" s="8" t="s">
@@ -9983,11 +9980,11 @@
         <v>5</v>
       </c>
       <c r="O159" s="10">
-        <f>COUNTIF(F159:J159,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P159" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -10002,7 +9999,7 @@
         <v>5</v>
       </c>
       <c r="D160" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E160" s="8" t="s">
@@ -10036,11 +10033,11 @@
         <v>5</v>
       </c>
       <c r="O160" s="10">
-        <f>COUNTIF(F160:J160,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P160" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -10055,7 +10052,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E161" s="8" t="s">
@@ -10089,11 +10086,11 @@
         <v>5</v>
       </c>
       <c r="O161" s="10">
-        <f>COUNTIF(F161:J161,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P161" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -10108,7 +10105,7 @@
         <v>5</v>
       </c>
       <c r="D162" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E162" s="8" t="s">
@@ -10142,11 +10139,11 @@
         <v>5</v>
       </c>
       <c r="O162" s="10">
-        <f>COUNTIF(F162:J162,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P162" s="10">
-        <f t="shared" ref="P162:P166" si="10">N162-O162</f>
+        <f t="shared" ref="P162:P166" si="15">N162-O162</f>
         <v>1</v>
       </c>
     </row>
@@ -10161,7 +10158,7 @@
         <v>5</v>
       </c>
       <c r="D163" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E163" s="8" t="s">
@@ -10195,11 +10192,11 @@
         <v>5</v>
       </c>
       <c r="O163" s="10">
-        <f>COUNTIF(F163:J163,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P163" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -10214,7 +10211,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="E164" s="8" t="s">
@@ -10248,11 +10245,11 @@
         <v>5</v>
       </c>
       <c r="O164" s="10">
-        <f>COUNTIF(F164:J164,"Present")</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P164" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -10267,7 +10264,7 @@
         <v>5</v>
       </c>
       <c r="D165" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E165" s="8" t="s">
@@ -10301,11 +10298,11 @@
         <v>5</v>
       </c>
       <c r="O165" s="10">
-        <f>COUNTIF(F165:J165,"Present")</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="P165" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10320,7 +10317,7 @@
         <v>5</v>
       </c>
       <c r="D166" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="E166" s="8" t="s">
@@ -10354,11 +10351,11 @@
         <v>5</v>
       </c>
       <c r="O166" s="10">
-        <f>COUNTIF(F166:J166,"Present")</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P166" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -10375,26 +10372,29 @@
         <v>25</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" ref="H167:L167" si="11">COUNTIF(H2:H166,"Absent")</f>
+        <f t="shared" ref="H167:M167" si="16">COUNTIF(H2:H166,"Absent")</f>
         <v>92</v>
       </c>
       <c r="I167" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="J167" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="K167" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="L167" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="M167" s="18"/>
+      <c r="M167" s="17">
+        <f t="shared" si="16"/>
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A140:P166">

--- a/attendance_data.xlsx
+++ b/attendance_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\attendance_website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF99E4F4-077D-44BF-9B40-62599C2C63BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA2947-4222-4209-952C-E7A44EBD0E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F33DA19-6151-4346-A3A3-5311E8A75F56}"/>
   </bookViews>
@@ -1522,9 +1522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778A1F93-BD03-4755-A395-19876E27A1C7}">
   <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="74" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P165" sqref="P165"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="74" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L139" sqref="L139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9446,7 +9446,7 @@
         <v>89</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O139" s="9">
         <v>5</v>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="N167" s="16">
         <f t="shared" si="16"/>
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
